--- a/latihan ANN/IF4071-K2-13512032.xlsx
+++ b/latihan ANN/IF4071-K2-13512032.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timothy.pratama\SkyDrive\ITB\Semester 7\IF4031 ML\Latihan ANN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timothy.pratama\Desktop\ANN\latihan ANN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="604"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="604" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Isi" sheetId="13" r:id="rId1"/>
@@ -1370,6 +1370,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1394,19 +1424,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1436,42 +1454,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="5" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,9 +1464,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,11 +1490,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,7 +1514,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1528,6 +1528,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1538,17 +1547,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1559,20 +1568,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1610,13 +1607,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,41 +1619,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1679,10 +1643,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1691,7 +1685,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2073,7 +2073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2081,307 +2083,319 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
+      <c r="B2" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
     </row>
     <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
+      <c r="B3" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="93" t="s">
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="91">
         <v>0</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="111" t="s">
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="83">
         <v>1</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="117" t="s">
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="119"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="101"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="54">
         <v>2</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="100" t="s">
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="102"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="54">
         <v>3</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="100" t="s">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="102"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="98"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="54">
         <v>4</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="100" t="s">
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="102"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="54">
         <v>5</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="100" t="s">
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="54">
         <v>6</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="100" t="s">
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="102"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="54">
         <v>7</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="100" t="s">
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="102"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="98"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="82">
         <v>8</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="105" t="s">
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="113"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="55">
         <v>9</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97" t="s">
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="99"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:L12"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="C11:H11"/>
@@ -2398,18 +2412,6 @@
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:L12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" location="'Perceptron - Dataset 1'!A1" display="'Perceptron - Dataset 1'!A1"/>
@@ -2564,24 +2566,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3">
         <v>13512032</v>
       </c>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="3">
         <v>13512044</v>
       </c>
@@ -2704,79 +2708,79 @@
         <v>27</v>
       </c>
       <c r="C10" s="45"/>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="131" t="s">
+      <c r="J10" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="132"/>
+      <c r="K10" s="129"/>
       <c r="L10" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="120" t="s">
+      <c r="M10" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120" t="s">
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120" t="s">
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="133" t="s">
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="Z10" s="134"/>
+      <c r="Z10" s="131"/>
       <c r="AA10" s="123" t="s">
         <v>40</v>
       </c>
       <c r="AB10" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="AC10" s="121" t="s">
+      <c r="AC10" s="132" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="125"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="45"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="73" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="125"/>
+      <c r="L11" s="124"/>
       <c r="M11" s="73" t="s">
         <v>44</v>
       </c>
@@ -2819,17 +2823,17 @@
       <c r="Z11" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="AA11" s="124"/>
+      <c r="AA11" s="134"/>
       <c r="AB11" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="AC11" s="122"/>
+      <c r="AC11" s="133"/>
     </row>
     <row r="12" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30">
         <v>0.1</v>
       </c>
-      <c r="D12" s="126">
+      <c r="D12" s="120">
         <v>1</v>
       </c>
       <c r="E12" s="6">
@@ -2919,13 +2923,13 @@
         <f>POWER(AA12,2)</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="126">
+      <c r="AC12" s="120">
         <f>SUM(AB12:AB14)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="127"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="7">
         <v>1</v>
       </c>
@@ -3017,10 +3021,10 @@
         <f t="shared" ref="AB13:AB14" si="13">POWER(AA13,2)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="127"/>
+      <c r="AC13" s="121"/>
     </row>
     <row r="14" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="128"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="9">
         <v>1</v>
       </c>
@@ -3112,11 +3116,14 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="128"/>
+      <c r="AC14" s="122"/>
     </row>
     <row r="15" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="AC12:AC14"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="L10:L11"/>
@@ -3133,9 +3140,6 @@
     <mergeCell ref="M10:P10"/>
     <mergeCell ref="AC10:AC11"/>
     <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="'Daftar Isi'!A1" display="Daftar Isi"/>
@@ -3149,7 +3153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3161,19 +3167,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3">
         <v>13512032</v>
       </c>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="3">
         <v>13512044</v>
       </c>
@@ -3216,52 +3222,52 @@
       <c r="D10" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="129" t="s">
+      <c r="J10" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="135" t="s">
+      <c r="K10" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="136"/>
-      <c r="M10" s="129" t="s">
+      <c r="L10" s="142"/>
+      <c r="M10" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="135" t="s">
+      <c r="N10" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="135" t="s">
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="135" t="s">
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="142"/>
+      <c r="X10" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" s="142"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="136"/>
+      <c r="Y10" s="141"/>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="141"/>
+      <c r="AB10" s="142"/>
       <c r="AC10" s="143" t="s">
         <v>39</v>
       </c>
@@ -3277,22 +3283,22 @@
       </c>
     </row>
     <row r="11" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="125"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
       <c r="K11" s="72" t="s">
         <v>54</v>
       </c>
       <c r="L11" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="130"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="72" t="s">
         <v>44</v>
       </c>
@@ -3344,15 +3350,15 @@
       <c r="AD11" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="125"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
     </row>
     <row r="12" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
-      <c r="D12" s="126">
+      <c r="D12" s="120">
         <v>1</v>
       </c>
       <c r="E12" s="6">
@@ -3456,13 +3462,13 @@
         <f>POWER(AE12,2)</f>
         <v>4</v>
       </c>
-      <c r="AG12" s="126">
+      <c r="AG12" s="120">
         <f>SUM(AF12:AF17)/2</f>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="127"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="7">
         <v>1</v>
       </c>
@@ -3569,10 +3575,10 @@
         <f t="shared" ref="AF13:AF29" si="8">POWER(AE13,2)</f>
         <v>4</v>
       </c>
-      <c r="AG13" s="127"/>
+      <c r="AG13" s="121"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="D14" s="127"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="7">
         <v>1</v>
       </c>
@@ -3679,10 +3685,10 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AG14" s="127"/>
+      <c r="AG14" s="121"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="D15" s="127"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="7">
         <v>1</v>
       </c>
@@ -3789,10 +3795,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="127"/>
+      <c r="AG15" s="121"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="D16" s="127"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="7">
         <v>1</v>
       </c>
@@ -3899,10 +3905,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="127"/>
+      <c r="AG16" s="121"/>
     </row>
     <row r="17" spans="4:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="138"/>
+      <c r="D17" s="136"/>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -4009,10 +4015,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="138"/>
+      <c r="AG17" s="136"/>
     </row>
     <row r="18" spans="4:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="139">
+      <c r="D18" s="137">
         <v>2</v>
       </c>
       <c r="E18" s="12">
@@ -4121,13 +4127,13 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AG18" s="139">
+      <c r="AG18" s="137">
         <f>SUM(AF18:AF23)/2</f>
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D19" s="140"/>
+      <c r="D19" s="138"/>
       <c r="E19" s="8">
         <v>1</v>
       </c>
@@ -4234,10 +4240,10 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AG19" s="140"/>
+      <c r="AG19" s="138"/>
     </row>
     <row r="20" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D20" s="140"/>
+      <c r="D20" s="138"/>
       <c r="E20" s="8">
         <v>1</v>
       </c>
@@ -4344,10 +4350,10 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AG20" s="140"/>
+      <c r="AG20" s="138"/>
     </row>
     <row r="21" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D21" s="140"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="8">
         <v>1</v>
       </c>
@@ -4454,10 +4460,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="140"/>
+      <c r="AG21" s="138"/>
     </row>
     <row r="22" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D22" s="140"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="8">
         <v>1</v>
       </c>
@@ -4564,10 +4570,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="140"/>
+      <c r="AG22" s="138"/>
     </row>
     <row r="23" spans="4:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="141"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="13">
         <v>1</v>
       </c>
@@ -4674,10 +4680,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="141"/>
+      <c r="AG23" s="139"/>
     </row>
     <row r="24" spans="4:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="137">
+      <c r="D24" s="135">
         <v>3</v>
       </c>
       <c r="E24" s="11">
@@ -4786,13 +4792,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="137">
+      <c r="AG24" s="135">
         <f>SUM(AF24:AF29)/2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D25" s="127"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="7">
         <v>1</v>
       </c>
@@ -4899,10 +4905,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG25" s="127"/>
+      <c r="AG25" s="121"/>
     </row>
     <row r="26" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D26" s="127"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="7">
         <v>1</v>
       </c>
@@ -5009,10 +5015,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG26" s="127"/>
+      <c r="AG26" s="121"/>
     </row>
     <row r="27" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D27" s="127"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="7">
         <v>1</v>
       </c>
@@ -5119,10 +5125,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="127"/>
+      <c r="AG27" s="121"/>
     </row>
     <row r="28" spans="4:33" x14ac:dyDescent="0.25">
-      <c r="D28" s="127"/>
+      <c r="D28" s="121"/>
       <c r="E28" s="7">
         <v>1</v>
       </c>
@@ -5229,10 +5235,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG28" s="127"/>
+      <c r="AG28" s="121"/>
     </row>
     <row r="29" spans="4:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="128"/>
+      <c r="D29" s="122"/>
       <c r="E29" s="9">
         <v>1</v>
       </c>
@@ -5339,11 +5345,20 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="128"/>
+      <c r="AG29" s="122"/>
     </row>
     <row r="30" spans="4:33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="D24:D29"/>
     <mergeCell ref="AG24:AG29"/>
     <mergeCell ref="B2:C2"/>
@@ -5360,15 +5375,6 @@
     <mergeCell ref="X10:AB10"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="'Daftar Isi'!A1" display="Daftar Isi"/>
@@ -5395,19 +5401,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3">
         <v>13512032</v>
       </c>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="3">
         <v>13512044</v>
       </c>
@@ -5445,7 +5451,7 @@
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="158" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="2"/>
@@ -5473,37 +5479,37 @@
       <c r="K10" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="121" t="s">
+      <c r="L10" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="121" t="s">
+      <c r="N10" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="121" t="s">
+      <c r="O10" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="115" t="s">
+      <c r="P10" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115" t="s">
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115" t="s">
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="121" t="s">
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="132" t="s">
         <v>39</v>
       </c>
       <c r="AC10" s="123" t="s">
@@ -5517,19 +5523,19 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="148"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
+      <c r="B11" s="158"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
       <c r="P11" s="68" t="s">
         <v>44</v>
       </c>
@@ -5566,17 +5572,17 @@
       <c r="AA11" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="AB11" s="158"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="125"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
     </row>
     <row r="12" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="155">
+      <c r="D12" s="152">
         <v>1</v>
       </c>
       <c r="E12" s="15">
@@ -5670,14 +5676,14 @@
         <f>POWER(AC12,2)</f>
         <v>0.36</v>
       </c>
-      <c r="AE12" s="152">
+      <c r="AE12" s="155">
         <f>SUM(AD12:AD14)/2</f>
         <v>0.33406249999999998</v>
       </c>
     </row>
     <row r="13" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
-      <c r="D13" s="156"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="17">
         <v>1</v>
       </c>
@@ -5773,10 +5779,10 @@
         <f t="shared" ref="AD13:AD14" si="13">POWER(AC13,2)</f>
         <v>0.20249999999999996</v>
       </c>
-      <c r="AE13" s="153"/>
+      <c r="AE13" s="156"/>
     </row>
     <row r="14" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="156"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="17">
         <v>1</v>
       </c>
@@ -5876,10 +5882,10 @@
         <f t="shared" si="13"/>
         <v>0.10562499999999997</v>
       </c>
-      <c r="AE14" s="153"/>
+      <c r="AE14" s="156"/>
     </row>
     <row r="15" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="145">
+      <c r="D15" s="148">
         <v>2</v>
       </c>
       <c r="E15" s="19">
@@ -5977,13 +5983,13 @@
         <f>POWER(AC15,2)</f>
         <v>0.15015624999999996</v>
       </c>
-      <c r="AE15" s="149">
+      <c r="AE15" s="145">
         <f>SUM(AD15:AD17)/2</f>
         <v>0.10349628906249998</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D16" s="146"/>
+      <c r="D16" s="149"/>
       <c r="E16" s="19">
         <v>1</v>
       </c>
@@ -6079,10 +6085,10 @@
         <f t="shared" ref="AD16:AD41" si="25">POWER(AC16,2)</f>
         <v>5.4639062500000009E-2</v>
       </c>
-      <c r="AE16" s="150"/>
+      <c r="AE16" s="146"/>
     </row>
     <row r="17" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="147"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="19">
         <v>1</v>
       </c>
@@ -6182,10 +6188,10 @@
         <f t="shared" si="25"/>
         <v>2.197265625E-3</v>
       </c>
-      <c r="AE17" s="151"/>
+      <c r="AE17" s="147"/>
     </row>
     <row r="18" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="155">
+      <c r="D18" s="152">
         <v>3</v>
       </c>
       <c r="E18" s="17">
@@ -6283,13 +6289,13 @@
         <f>POWER(AC18,2)</f>
         <v>7.105556640625002E-2</v>
       </c>
-      <c r="AE18" s="152">
+      <c r="AE18" s="155">
         <f>SUM(AD18:AD20)/2</f>
         <v>4.9213734008789069E-2</v>
       </c>
     </row>
     <row r="19" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D19" s="156"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="17">
         <v>1</v>
       </c>
@@ -6385,10 +6391,10 @@
         <f t="shared" si="25"/>
         <v>2.3075508789062508E-2</v>
       </c>
-      <c r="AE19" s="153"/>
+      <c r="AE19" s="156"/>
     </row>
     <row r="20" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="157"/>
+      <c r="D20" s="154"/>
       <c r="E20" s="17">
         <v>1</v>
       </c>
@@ -6488,10 +6494,10 @@
         <f t="shared" si="25"/>
         <v>4.2963928222656111E-3</v>
       </c>
-      <c r="AE20" s="154"/>
+      <c r="AE20" s="157"/>
     </row>
     <row r="21" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="145">
+      <c r="D21" s="148">
         <v>4</v>
       </c>
       <c r="E21" s="19">
@@ -6589,13 +6595,13 @@
         <f t="shared" si="25"/>
         <v>3.7306318908691405E-2</v>
       </c>
-      <c r="AE21" s="149">
+      <c r="AE21" s="145">
         <f t="shared" ref="AE21" si="51">SUM(AD21:AD23)/2</f>
         <v>3.2110488340835561E-2</v>
       </c>
     </row>
     <row r="22" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D22" s="146"/>
+      <c r="D22" s="149"/>
       <c r="E22" s="19">
         <v>1</v>
       </c>
@@ -6691,10 +6697,10 @@
         <f t="shared" si="25"/>
         <v>1.5060466851196278E-2</v>
       </c>
-      <c r="AE22" s="150"/>
+      <c r="AE22" s="146"/>
     </row>
     <row r="23" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="147"/>
+      <c r="D23" s="150"/>
       <c r="E23" s="19">
         <v>1</v>
       </c>
@@ -6794,10 +6800,10 @@
         <f t="shared" si="25"/>
         <v>1.1854190921783449E-2</v>
       </c>
-      <c r="AE23" s="151"/>
+      <c r="AE23" s="147"/>
     </row>
     <row r="24" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="155">
+      <c r="D24" s="152">
         <v>5</v>
       </c>
       <c r="E24" s="17">
@@ -6895,13 +6901,13 @@
         <f t="shared" si="25"/>
         <v>2.1342756047096255E-2</v>
       </c>
-      <c r="AE24" s="152">
+      <c r="AE24" s="155">
         <f t="shared" ref="AE24" si="67">SUM(AD24:AD26)/2</f>
         <v>2.469442521469253E-2</v>
       </c>
     </row>
     <row r="25" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D25" s="156"/>
+      <c r="D25" s="153"/>
       <c r="E25" s="17">
         <v>1</v>
       </c>
@@ -6997,10 +7003,10 @@
         <f t="shared" si="25"/>
         <v>1.2797040259781239E-2</v>
       </c>
-      <c r="AE25" s="153"/>
+      <c r="AE25" s="156"/>
     </row>
     <row r="26" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="157"/>
+      <c r="D26" s="154"/>
       <c r="E26" s="17">
         <v>1</v>
       </c>
@@ -7100,10 +7106,10 @@
         <f t="shared" si="25"/>
         <v>1.5249054122507565E-2</v>
       </c>
-      <c r="AE26" s="154"/>
+      <c r="AE26" s="157"/>
     </row>
     <row r="27" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="145">
+      <c r="D27" s="148">
         <v>6</v>
       </c>
       <c r="E27" s="19">
@@ -7201,13 +7207,13 @@
         <f t="shared" si="25"/>
         <v>1.3136100146957602E-2</v>
       </c>
-      <c r="AE27" s="149">
+      <c r="AE27" s="145">
         <f t="shared" ref="AE27" si="80">SUM(AD27:AD29)/2</f>
         <v>2.0593258806834096E-2</v>
       </c>
     </row>
     <row r="28" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D28" s="146"/>
+      <c r="D28" s="149"/>
       <c r="E28" s="19">
         <v>1</v>
       </c>
@@ -7303,10 +7309,10 @@
         <f t="shared" si="25"/>
         <v>1.2112888361836136E-2</v>
       </c>
-      <c r="AE28" s="150"/>
+      <c r="AE28" s="146"/>
     </row>
     <row r="29" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="147"/>
+      <c r="D29" s="150"/>
       <c r="E29" s="19">
         <v>1</v>
       </c>
@@ -7406,10 +7412,10 @@
         <f t="shared" si="25"/>
         <v>1.5937529104874459E-2</v>
       </c>
-      <c r="AE29" s="151"/>
+      <c r="AE29" s="147"/>
     </row>
     <row r="30" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="155">
+      <c r="D30" s="152">
         <v>7</v>
       </c>
       <c r="E30" s="17">
@@ -7507,13 +7513,13 @@
         <f t="shared" si="25"/>
         <v>8.6217486368200501E-3</v>
       </c>
-      <c r="AE30" s="152">
+      <c r="AE30" s="155">
         <f t="shared" ref="AE30" si="93">SUM(AD30:AD32)/2</f>
         <v>1.7919718778233604E-2</v>
       </c>
     </row>
     <row r="31" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D31" s="156"/>
+      <c r="D31" s="153"/>
       <c r="E31" s="17">
         <v>1</v>
       </c>
@@ -7609,10 +7615,10 @@
         <f t="shared" si="25"/>
         <v>1.1794389899244627E-2</v>
       </c>
-      <c r="AE31" s="153"/>
+      <c r="AE31" s="156"/>
     </row>
     <row r="32" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="157"/>
+      <c r="D32" s="154"/>
       <c r="E32" s="17">
         <v>1</v>
       </c>
@@ -7712,10 +7718,10 @@
         <f t="shared" si="25"/>
         <v>1.5423299020402528E-2</v>
       </c>
-      <c r="AE32" s="154"/>
+      <c r="AE32" s="157"/>
     </row>
     <row r="33" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="145">
+      <c r="D33" s="148">
         <v>8</v>
       </c>
       <c r="E33" s="19">
@@ -7813,13 +7819,13 @@
         <f t="shared" si="25"/>
         <v>5.9933017347287452E-3</v>
       </c>
-      <c r="AE33" s="149">
+      <c r="AE33" s="145">
         <f t="shared" ref="AE33" si="106">SUM(AD33:AD35)/2</f>
         <v>1.5960310807344193E-2</v>
       </c>
     </row>
     <row r="34" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D34" s="146"/>
+      <c r="D34" s="149"/>
       <c r="E34" s="19">
         <v>1</v>
       </c>
@@ -7915,10 +7921,10 @@
         <f t="shared" si="25"/>
         <v>1.1463777042613102E-2</v>
       </c>
-      <c r="AE34" s="150"/>
+      <c r="AE34" s="146"/>
     </row>
     <row r="35" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="147"/>
+      <c r="D35" s="150"/>
       <c r="E35" s="19">
         <v>1</v>
       </c>
@@ -8018,10 +8024,10 @@
         <f t="shared" si="25"/>
         <v>1.446354283734654E-2</v>
       </c>
-      <c r="AE35" s="151"/>
+      <c r="AE35" s="147"/>
     </row>
     <row r="36" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="155">
+      <c r="D36" s="152">
         <v>9</v>
       </c>
       <c r="E36" s="17">
@@ -8119,13 +8125,13 @@
         <f t="shared" si="25"/>
         <v>4.3848155053065763E-3</v>
       </c>
-      <c r="AE36" s="152">
+      <c r="AE36" s="155">
         <f t="shared" ref="AE36" si="119">SUM(AD36:AD38)/2</f>
         <v>1.4398213042466447E-2</v>
       </c>
     </row>
     <row r="37" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="156"/>
+      <c r="D37" s="153"/>
       <c r="E37" s="17">
         <v>1</v>
       </c>
@@ -8221,10 +8227,10 @@
         <f t="shared" si="25"/>
         <v>1.1028032215909625E-2</v>
       </c>
-      <c r="AE37" s="153"/>
+      <c r="AE37" s="156"/>
     </row>
     <row r="38" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="157"/>
+      <c r="D38" s="154"/>
       <c r="E38" s="17">
         <v>1</v>
       </c>
@@ -8324,10 +8330,10 @@
         <f t="shared" si="25"/>
         <v>1.3383578363716692E-2</v>
       </c>
-      <c r="AE38" s="154"/>
+      <c r="AE38" s="157"/>
     </row>
     <row r="39" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="145">
+      <c r="D39" s="148">
         <v>10</v>
       </c>
       <c r="E39" s="19">
@@ -8425,13 +8431,13 @@
         <f t="shared" si="25"/>
         <v>3.3548769100964827E-3</v>
       </c>
-      <c r="AE39" s="149">
+      <c r="AE39" s="145">
         <f>SUM(AD39:AD41)/2</f>
         <v>1.308014186589969E-2</v>
       </c>
     </row>
     <row r="40" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D40" s="146"/>
+      <c r="D40" s="149"/>
       <c r="E40" s="19">
         <v>1</v>
       </c>
@@ -8527,10 +8533,10 @@
         <f t="shared" si="25"/>
         <v>1.0492306602749843E-2</v>
       </c>
-      <c r="AE40" s="150"/>
+      <c r="AE40" s="146"/>
     </row>
     <row r="41" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="147"/>
+      <c r="D41" s="150"/>
       <c r="E41" s="21">
         <v>1</v>
       </c>
@@ -8630,11 +8636,37 @@
         <f t="shared" si="25"/>
         <v>1.2313100218953056E-2</v>
       </c>
-      <c r="AE41" s="151"/>
+      <c r="AE41" s="147"/>
     </row>
     <row r="42" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="AE39:AE41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="AE36:AE38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="AE24:AE26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="AE33:AE35"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="AE27:AE29"/>
     <mergeCell ref="AE21:AE23"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="AB10:AB11"/>
@@ -8651,32 +8683,6 @@
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="AE12:AE14"/>
-    <mergeCell ref="AE39:AE41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="AE36:AE38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="AE24:AE26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="AE33:AE35"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="AE27:AE29"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="'Daftar Isi'!A1" display="Daftar Isi"/>
@@ -8703,19 +8709,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3">
         <v>13512032</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="3">
         <v>13512044</v>
       </c>
@@ -8751,25 +8757,25 @@
     </row>
     <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:36" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="171" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="125" t="s">
         <v>50</v>
       </c>
       <c r="J10" s="123" t="s">
@@ -8796,27 +8802,27 @@
       <c r="Q10" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="115" t="s">
+      <c r="R10" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115" t="s">
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115" t="s">
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="115"/>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="115"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
       <c r="AG10" s="123" t="s">
         <v>39</v>
       </c>
@@ -8831,21 +8837,21 @@
       </c>
     </row>
     <row r="11" spans="2:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="159"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
+      <c r="B11" s="171"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
       <c r="R11" s="23" t="s">
         <v>44</v>
       </c>
@@ -8891,16 +8897,16 @@
       <c r="AF11" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AG11" s="124"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="125"/>
-      <c r="AJ11" s="125"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="124"/>
     </row>
     <row r="12" spans="2:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
-      <c r="D12" s="160">
+      <c r="D12" s="159">
         <v>1</v>
       </c>
       <c r="E12" s="36">
@@ -9011,13 +9017,13 @@
         <f>POWER(AH12,2)</f>
         <v>27.688644000000014</v>
       </c>
-      <c r="AJ12" s="163">
+      <c r="AJ12" s="162">
         <f>SUM(AI12:AI17)/2</f>
         <v>135.10360400000005</v>
       </c>
     </row>
     <row r="13" spans="2:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="161"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="37">
         <v>1</v>
       </c>
@@ -9131,10 +9137,10 @@
         <f t="shared" ref="AI13:AI17" si="16">POWER(AH13,2)</f>
         <v>26.625600000000009</v>
       </c>
-      <c r="AJ13" s="164"/>
+      <c r="AJ13" s="163"/>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D14" s="161"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="37">
         <v>1</v>
       </c>
@@ -9248,10 +9254,10 @@
         <f t="shared" si="16"/>
         <v>24.44313600000001</v>
       </c>
-      <c r="AJ14" s="164"/>
+      <c r="AJ14" s="163"/>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D15" s="161"/>
+      <c r="D15" s="160"/>
       <c r="E15" s="37">
         <v>1</v>
       </c>
@@ -9365,10 +9371,10 @@
         <f t="shared" si="16"/>
         <v>65.415744000000018</v>
       </c>
-      <c r="AJ15" s="164"/>
+      <c r="AJ15" s="163"/>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D16" s="161"/>
+      <c r="D16" s="160"/>
       <c r="E16" s="37">
         <v>1</v>
       </c>
@@ -9482,10 +9488,10 @@
         <f t="shared" si="16"/>
         <v>57.608100000000022</v>
       </c>
-      <c r="AJ16" s="164"/>
+      <c r="AJ16" s="163"/>
     </row>
     <row r="17" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="162"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="38">
         <v>1</v>
       </c>
@@ -9604,10 +9610,10 @@
         <f t="shared" si="16"/>
         <v>68.425984000000028</v>
       </c>
-      <c r="AJ17" s="165"/>
+      <c r="AJ17" s="164"/>
     </row>
     <row r="18" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="166">
+      <c r="D18" s="165">
         <v>2</v>
       </c>
       <c r="E18" s="33">
@@ -9723,13 +9729,13 @@
         <f>POWER(AH18,2)</f>
         <v>33591.18157737681</v>
       </c>
-      <c r="AJ18" s="169">
+      <c r="AJ18" s="168">
         <f>SUM(AI18:AI23)/2</f>
         <v>151300.45732801393</v>
       </c>
     </row>
     <row r="19" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D19" s="167"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="34">
         <v>1</v>
       </c>
@@ -9843,10 +9849,10 @@
         <f t="shared" ref="AI19:AI23" si="35">POWER(AH19,2)</f>
         <v>29705.186395909503</v>
       </c>
-      <c r="AJ19" s="170"/>
+      <c r="AJ19" s="169"/>
     </row>
     <row r="20" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D20" s="167"/>
+      <c r="D20" s="166"/>
       <c r="E20" s="34">
         <v>1</v>
       </c>
@@ -9960,10 +9966,10 @@
         <f t="shared" si="35"/>
         <v>28557.223988813617</v>
       </c>
-      <c r="AJ20" s="170"/>
+      <c r="AJ20" s="169"/>
     </row>
     <row r="21" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D21" s="167"/>
+      <c r="D21" s="166"/>
       <c r="E21" s="34">
         <v>1</v>
       </c>
@@ -10077,10 +10083,10 @@
         <f t="shared" si="35"/>
         <v>73195.184649919465</v>
       </c>
-      <c r="AJ21" s="170"/>
+      <c r="AJ21" s="169"/>
     </row>
     <row r="22" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D22" s="167"/>
+      <c r="D22" s="166"/>
       <c r="E22" s="34">
         <v>1</v>
       </c>
@@ -10194,10 +10200,10 @@
         <f t="shared" si="35"/>
         <v>64767.218431473979</v>
       </c>
-      <c r="AJ22" s="170"/>
+      <c r="AJ22" s="169"/>
     </row>
     <row r="23" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="168"/>
+      <c r="D23" s="167"/>
       <c r="E23" s="35">
         <v>1</v>
       </c>
@@ -10316,10 +10322,10 @@
         <f t="shared" si="35"/>
         <v>72784.91961253449</v>
       </c>
-      <c r="AJ23" s="171"/>
+      <c r="AJ23" s="170"/>
     </row>
     <row r="24" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="160">
+      <c r="D24" s="159">
         <v>3</v>
       </c>
       <c r="E24" s="36">
@@ -10435,13 +10441,13 @@
         <f>POWER(AH24,2)</f>
         <v>37599576.444742866</v>
       </c>
-      <c r="AJ24" s="163">
+      <c r="AJ24" s="162">
         <f>SUM(AI24:AI29)/2</f>
         <v>169501384.31863207</v>
       </c>
     </row>
     <row r="25" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D25" s="161"/>
+      <c r="D25" s="160"/>
       <c r="E25" s="37">
         <v>1</v>
       </c>
@@ -10555,10 +10561,10 @@
         <f t="shared" ref="AI25:AI29" si="56">POWER(AH25,2)</f>
         <v>33325635.90124191</v>
       </c>
-      <c r="AJ25" s="164"/>
+      <c r="AJ25" s="163"/>
     </row>
     <row r="26" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D26" s="161"/>
+      <c r="D26" s="160"/>
       <c r="E26" s="37">
         <v>1</v>
       </c>
@@ -10672,10 +10678,10 @@
         <f t="shared" si="56"/>
         <v>31999376.19230216</v>
       </c>
-      <c r="AJ26" s="164"/>
+      <c r="AJ26" s="163"/>
     </row>
     <row r="27" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D27" s="161"/>
+      <c r="D27" s="160"/>
       <c r="E27" s="37">
         <v>1</v>
       </c>
@@ -10789,10 +10795,10 @@
         <f t="shared" si="56"/>
         <v>81957743.399765834</v>
       </c>
-      <c r="AJ27" s="164"/>
+      <c r="AJ27" s="163"/>
     </row>
     <row r="28" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D28" s="161"/>
+      <c r="D28" s="160"/>
       <c r="E28" s="37">
         <v>1</v>
       </c>
@@ -10906,10 +10912,10 @@
         <f t="shared" si="56"/>
         <v>72509005.400454015</v>
       </c>
-      <c r="AJ28" s="164"/>
+      <c r="AJ28" s="163"/>
     </row>
     <row r="29" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="162"/>
+      <c r="D29" s="161"/>
       <c r="E29" s="38">
         <v>1</v>
       </c>
@@ -11028,10 +11034,10 @@
         <f t="shared" si="56"/>
         <v>81611431.298757374</v>
       </c>
-      <c r="AJ29" s="165"/>
+      <c r="AJ29" s="164"/>
     </row>
     <row r="30" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="166">
+      <c r="D30" s="165">
         <v>4</v>
       </c>
       <c r="E30" s="33">
@@ -11147,13 +11153,13 @@
         <f>POWER(AH30,2)</f>
         <v>42123945700.073685</v>
       </c>
-      <c r="AJ30" s="169">
+      <c r="AJ30" s="168">
         <f>SUM(AI30:AI35)/2</f>
         <v>189891848627.70261</v>
       </c>
     </row>
     <row r="31" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D31" s="167"/>
+      <c r="D31" s="166"/>
       <c r="E31" s="34">
         <v>1</v>
       </c>
@@ -11267,10 +11273,10 @@
         <f t="shared" ref="AI31:AI35" si="77">POWER(AH31,2)</f>
         <v>37333178667.804489</v>
       </c>
-      <c r="AJ31" s="170"/>
+      <c r="AJ31" s="169"/>
     </row>
     <row r="32" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D32" s="167"/>
+      <c r="D32" s="166"/>
       <c r="E32" s="34">
         <v>1</v>
       </c>
@@ -11384,10 +11390,10 @@
         <f t="shared" si="77"/>
         <v>35848717605.020615</v>
       </c>
-      <c r="AJ32" s="170"/>
+      <c r="AJ32" s="169"/>
     </row>
     <row r="33" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D33" s="167"/>
+      <c r="D33" s="166"/>
       <c r="E33" s="34">
         <v>1</v>
       </c>
@@ -11501,10 +11507,10 @@
         <f t="shared" si="77"/>
         <v>91818279657.939636</v>
       </c>
-      <c r="AJ33" s="170"/>
+      <c r="AJ33" s="169"/>
     </row>
     <row r="34" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D34" s="167"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="34">
         <v>1</v>
       </c>
@@ -11618,10 +11624,10 @@
         <f t="shared" si="77"/>
         <v>81233103840.840607</v>
       </c>
-      <c r="AJ34" s="170"/>
+      <c r="AJ34" s="169"/>
     </row>
     <row r="35" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="168"/>
+      <c r="D35" s="167"/>
       <c r="E35" s="35">
         <v>1</v>
       </c>
@@ -11740,10 +11746,10 @@
         <f t="shared" si="77"/>
         <v>91426471783.726151</v>
       </c>
-      <c r="AJ35" s="171"/>
+      <c r="AJ35" s="170"/>
     </row>
     <row r="36" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="160">
+      <c r="D36" s="159">
         <v>5</v>
       </c>
       <c r="E36" s="36">
@@ -11859,13 +11865,13 @@
         <f>POWER(AH36,2)</f>
         <v>47191277652731.812</v>
       </c>
-      <c r="AJ36" s="163">
+      <c r="AJ36" s="162">
         <f>SUM(AI36:AI41)/2</f>
         <v>212735219389912.81</v>
       </c>
     </row>
     <row r="37" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D37" s="161"/>
+      <c r="D37" s="160"/>
       <c r="E37" s="37">
         <v>1</v>
       </c>
@@ -11979,10 +11985,10 @@
         <f t="shared" ref="AI37:AI41" si="98">POWER(AH37,2)</f>
         <v>41824286188319.914</v>
       </c>
-      <c r="AJ37" s="164"/>
+      <c r="AJ37" s="163"/>
     </row>
     <row r="38" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D38" s="161"/>
+      <c r="D38" s="160"/>
       <c r="E38" s="37">
         <v>1</v>
       </c>
@@ -12096,10 +12102,10 @@
         <f t="shared" si="98"/>
         <v>40161204805721.273</v>
       </c>
-      <c r="AJ38" s="164"/>
+      <c r="AJ38" s="163"/>
     </row>
     <row r="39" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D39" s="161"/>
+      <c r="D39" s="160"/>
       <c r="E39" s="37">
         <v>1</v>
       </c>
@@ -12213,10 +12219,10 @@
         <f t="shared" si="98"/>
         <v>102863675695220.58</v>
       </c>
-      <c r="AJ39" s="164"/>
+      <c r="AJ39" s="163"/>
     </row>
     <row r="40" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D40" s="161"/>
+      <c r="D40" s="160"/>
       <c r="E40" s="37">
         <v>1</v>
       </c>
@@ -12330,10 +12336,10 @@
         <f t="shared" si="98"/>
         <v>91005131437845.406</v>
       </c>
-      <c r="AJ40" s="164"/>
+      <c r="AJ40" s="163"/>
     </row>
     <row r="41" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="162"/>
+      <c r="D41" s="161"/>
       <c r="E41" s="38">
         <v>1</v>
       </c>
@@ -12452,10 +12458,10 @@
         <f t="shared" si="98"/>
         <v>102424862999986.62</v>
       </c>
-      <c r="AJ41" s="165"/>
+      <c r="AJ41" s="164"/>
     </row>
     <row r="42" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="166">
+      <c r="D42" s="165">
         <v>6</v>
       </c>
       <c r="E42" s="33">
@@ -12571,13 +12577,13 @@
         <f>POWER(AH42,2)</f>
         <v>5.2868235999264432E+16</v>
       </c>
-      <c r="AJ42" s="169">
+      <c r="AJ42" s="168">
         <f>SUM(AI42:AI47)/2</f>
         <v>2.3832657323594701E+17</v>
       </c>
     </row>
     <row r="43" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D43" s="167"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="34">
         <v>1</v>
       </c>
@@ -12691,10 +12697,10 @@
         <f t="shared" ref="AI43:AI47" si="119">POWER(AH43,2)</f>
         <v>4.6855609976265E+16</v>
       </c>
-      <c r="AJ43" s="170"/>
+      <c r="AJ43" s="169"/>
     </row>
     <row r="44" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D44" s="167"/>
+      <c r="D44" s="166"/>
       <c r="E44" s="34">
         <v>1</v>
       </c>
@@ -12808,10 +12814,10 @@
         <f t="shared" si="119"/>
         <v>4.4992466796002504E+16</v>
       </c>
-      <c r="AJ44" s="170"/>
+      <c r="AJ44" s="169"/>
     </row>
     <row r="45" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D45" s="167"/>
+      <c r="D45" s="166"/>
       <c r="E45" s="34">
         <v>1</v>
       </c>
@@ -12925,10 +12931,10 @@
         <f t="shared" si="119"/>
         <v>1.1523784225112691E+17</v>
       </c>
-      <c r="AJ45" s="170"/>
+      <c r="AJ45" s="169"/>
     </row>
     <row r="46" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D46" s="167"/>
+      <c r="D46" s="166"/>
       <c r="E46" s="34">
         <v>1</v>
       </c>
@@ -13042,10 +13048,10 @@
         <f t="shared" si="119"/>
         <v>1.0195275393329322E+17</v>
       </c>
-      <c r="AJ46" s="170"/>
+      <c r="AJ46" s="169"/>
     </row>
     <row r="47" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="168"/>
+      <c r="D47" s="167"/>
       <c r="E47" s="35">
         <v>1</v>
       </c>
@@ -13164,10 +13170,10 @@
         <f t="shared" si="119"/>
         <v>1.1474623751594192E+17</v>
       </c>
-      <c r="AJ47" s="171"/>
+      <c r="AJ47" s="170"/>
     </row>
     <row r="48" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="160">
+      <c r="D48" s="159">
         <v>7</v>
       </c>
       <c r="E48" s="36">
@@ -13283,13 +13289,13 @@
         <f>POWER(AH48,2)</f>
         <v>5.9228112510275518E+19</v>
       </c>
-      <c r="AJ48" s="163">
+      <c r="AJ48" s="162">
         <f>SUM(AI48:AI53)/2</f>
         <v>2.669964835784142E+20</v>
       </c>
     </row>
     <row r="49" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D49" s="161"/>
+      <c r="D49" s="160"/>
       <c r="E49" s="37">
         <v>1</v>
       </c>
@@ -13403,10 +13409,10 @@
         <f t="shared" ref="AI49:AI53" si="147">POWER(AH49,2)</f>
         <v>5.2492187263413551E+19</v>
       </c>
-      <c r="AJ49" s="164"/>
+      <c r="AJ49" s="163"/>
     </row>
     <row r="50" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D50" s="161"/>
+      <c r="D50" s="160"/>
       <c r="E50" s="37">
         <v>1</v>
       </c>
@@ -13520,10 +13526,10 @@
         <f t="shared" si="147"/>
         <v>5.0404913979416682E+19</v>
       </c>
-      <c r="AJ50" s="164"/>
+      <c r="AJ50" s="163"/>
     </row>
     <row r="51" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D51" s="161"/>
+      <c r="D51" s="160"/>
       <c r="E51" s="37">
         <v>1</v>
       </c>
@@ -13637,10 +13643,10 @@
         <f t="shared" si="147"/>
         <v>1.2910057920346741E+20</v>
       </c>
-      <c r="AJ51" s="164"/>
+      <c r="AJ51" s="163"/>
     </row>
     <row r="52" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D52" s="161"/>
+      <c r="D52" s="160"/>
       <c r="E52" s="37">
         <v>1</v>
       </c>
@@ -13754,10 +13760,10 @@
         <f t="shared" si="147"/>
         <v>1.1421733803592126E+20</v>
       </c>
-      <c r="AJ52" s="164"/>
+      <c r="AJ52" s="163"/>
     </row>
     <row r="53" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="162"/>
+      <c r="D53" s="161"/>
       <c r="E53" s="38">
         <v>1</v>
       </c>
@@ -13876,10 +13882,10 @@
         <f t="shared" si="147"/>
         <v>1.2854983616433401E+20</v>
       </c>
-      <c r="AJ53" s="165"/>
+      <c r="AJ53" s="164"/>
     </row>
     <row r="54" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="166">
+      <c r="D54" s="165">
         <v>8</v>
       </c>
       <c r="E54" s="33">
@@ -13995,13 +14001,13 @@
         <f>POWER(AH54,2)</f>
         <v>6.6353061494072889E+22</v>
       </c>
-      <c r="AJ54" s="169">
+      <c r="AJ54" s="168">
         <f>SUM(AI54:AI59)/2</f>
         <v>2.9911529073454632E+23</v>
       </c>
     </row>
     <row r="55" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D55" s="167"/>
+      <c r="D55" s="166"/>
       <c r="E55" s="34">
         <v>1</v>
       </c>
@@ -14115,10 +14121,10 @@
         <f t="shared" ref="AI55:AI59" si="168">POWER(AH55,2)</f>
         <v>5.8806826380951099E+22</v>
       </c>
-      <c r="AJ55" s="170"/>
+      <c r="AJ55" s="169"/>
     </row>
     <row r="56" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D56" s="167"/>
+      <c r="D56" s="166"/>
       <c r="E56" s="34">
         <v>1</v>
       </c>
@@ -14232,10 +14238,10 @@
         <f t="shared" si="168"/>
         <v>5.6468460922406487E+22</v>
       </c>
-      <c r="AJ56" s="170"/>
+      <c r="AJ56" s="169"/>
     </row>
     <row r="57" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D57" s="167"/>
+      <c r="D57" s="166"/>
       <c r="E57" s="34">
         <v>1</v>
       </c>
@@ -14349,10 +14355,10 @@
         <f t="shared" si="168"/>
         <v>1.4463095830080795E+23</v>
       </c>
-      <c r="AJ57" s="170"/>
+      <c r="AJ57" s="169"/>
     </row>
     <row r="58" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D58" s="167"/>
+      <c r="D58" s="166"/>
       <c r="E58" s="34">
         <v>1</v>
       </c>
@@ -14466,10 +14472,10 @@
         <f t="shared" si="168"/>
         <v>1.2795731170741221E+23</v>
       </c>
-      <c r="AJ58" s="170"/>
+      <c r="AJ58" s="169"/>
     </row>
     <row r="59" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="168"/>
+      <c r="D59" s="167"/>
       <c r="E59" s="35">
         <v>1</v>
       </c>
@@ -14588,10 +14594,10 @@
         <f t="shared" si="168"/>
         <v>1.4401396266344195E+23</v>
       </c>
-      <c r="AJ59" s="171"/>
+      <c r="AJ59" s="170"/>
     </row>
     <row r="60" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="160">
+      <c r="D60" s="159">
         <v>9</v>
       </c>
       <c r="E60" s="36">
@@ -14707,13 +14713,13 @@
         <f>POWER(AH60,2)</f>
         <v>7.4335118627449041E+25</v>
       </c>
-      <c r="AJ60" s="163">
+      <c r="AJ60" s="162">
         <f>SUM(AI60:AI65)/2</f>
         <v>3.3509788575524704E+26</v>
       </c>
     </row>
     <row r="61" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D61" s="161"/>
+      <c r="D61" s="160"/>
       <c r="E61" s="37">
         <v>1</v>
       </c>
@@ -14827,10 +14833,10 @@
         <f t="shared" ref="AI61:AI65" si="189">POWER(AH61,2)</f>
         <v>6.5881096014373968E+25</v>
       </c>
-      <c r="AJ61" s="164"/>
+      <c r="AJ61" s="163"/>
     </row>
     <row r="62" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D62" s="161"/>
+      <c r="D62" s="160"/>
       <c r="E62" s="37">
         <v>1</v>
       </c>
@@ -14944,10 +14950,10 @@
         <f t="shared" si="189"/>
         <v>6.3261432809015257E+25</v>
       </c>
-      <c r="AJ62" s="164"/>
+      <c r="AJ62" s="163"/>
     </row>
     <row r="63" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D63" s="161"/>
+      <c r="D63" s="160"/>
       <c r="E63" s="37">
         <v>1</v>
       </c>
@@ -15061,10 +15067,10 @@
         <f t="shared" si="189"/>
         <v>1.6202959140711551E+26</v>
       </c>
-      <c r="AJ63" s="164"/>
+      <c r="AJ63" s="163"/>
     </row>
     <row r="64" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D64" s="161"/>
+      <c r="D64" s="160"/>
       <c r="E64" s="37">
         <v>1</v>
       </c>
@@ -15178,10 +15184,10 @@
         <f t="shared" si="189"/>
         <v>1.4335015944776216E+26</v>
       </c>
-      <c r="AJ64" s="164"/>
+      <c r="AJ64" s="163"/>
     </row>
     <row r="65" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="162"/>
+      <c r="D65" s="161"/>
       <c r="E65" s="38">
         <v>1</v>
       </c>
@@ -15300,10 +15306,10 @@
         <f t="shared" si="189"/>
         <v>1.6133837320477821E+26</v>
       </c>
-      <c r="AJ65" s="165"/>
+      <c r="AJ65" s="164"/>
     </row>
     <row r="66" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="166">
+      <c r="D66" s="165">
         <v>10</v>
       </c>
       <c r="E66" s="33">
@@ -15419,13 +15425,13 @@
         <f>POWER(AH66,2)</f>
         <v>8.3277391230161022E+28</v>
       </c>
-      <c r="AJ66" s="169">
+      <c r="AJ66" s="168">
         <f>SUM(AI66:AI71)/2</f>
         <v>3.7540906973321646E+29</v>
       </c>
     </row>
     <row r="67" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D67" s="167"/>
+      <c r="D67" s="166"/>
       <c r="E67" s="34">
         <v>1</v>
       </c>
@@ -15539,10 +15545,10 @@
         <f t="shared" ref="AI67:AI71" si="210">POWER(AH67,2)</f>
         <v>7.3806377238155804E+28</v>
       </c>
-      <c r="AJ67" s="170"/>
+      <c r="AJ67" s="169"/>
     </row>
     <row r="68" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D68" s="167"/>
+      <c r="D68" s="166"/>
       <c r="E68" s="34">
         <v>1</v>
       </c>
@@ -15656,10 +15662,10 @@
         <f t="shared" si="210"/>
         <v>7.0871577083505595E+28</v>
       </c>
-      <c r="AJ68" s="170"/>
+      <c r="AJ68" s="169"/>
     </row>
     <row r="69" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D69" s="167"/>
+      <c r="D69" s="166"/>
       <c r="E69" s="34">
         <v>1</v>
       </c>
@@ -15773,10 +15779,10 @@
         <f t="shared" si="210"/>
         <v>1.8152122339508546E+29</v>
       </c>
-      <c r="AJ69" s="170"/>
+      <c r="AJ69" s="169"/>
     </row>
     <row r="70" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D70" s="167"/>
+      <c r="D70" s="166"/>
       <c r="E70" s="34">
         <v>1</v>
       </c>
@@ -15890,10 +15896,10 @@
         <f t="shared" si="210"/>
         <v>1.6059471662468004E+29</v>
       </c>
-      <c r="AJ70" s="170"/>
+      <c r="AJ70" s="169"/>
     </row>
     <row r="71" spans="4:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="168"/>
+      <c r="D71" s="167"/>
       <c r="E71" s="35">
         <v>1</v>
       </c>
@@ -16012,11 +16018,39 @@
         <f t="shared" si="210"/>
         <v>1.8074685389484498E+29</v>
       </c>
-      <c r="AJ71" s="171"/>
+      <c r="AJ71" s="170"/>
     </row>
     <row r="72" spans="4:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="AJ36:AJ41"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="AJ18:AJ23"/>
+    <mergeCell ref="AG10:AG11"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AI10:AI11"/>
+    <mergeCell ref="AH10:AH11"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="AJ12:AJ17"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="D60:D65"/>
     <mergeCell ref="AJ60:AJ65"/>
     <mergeCell ref="D66:D71"/>
@@ -16033,34 +16067,6 @@
     <mergeCell ref="AJ24:AJ29"/>
     <mergeCell ref="D30:D35"/>
     <mergeCell ref="AJ30:AJ35"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="AJ36:AJ41"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="AJ18:AJ23"/>
-    <mergeCell ref="AG10:AG11"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AI10:AI11"/>
-    <mergeCell ref="AH10:AH11"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="AJ12:AJ17"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="'Daftar Isi'!A1" display="Daftar Isi"/>
@@ -16087,19 +16093,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3">
         <v>13512032</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="3">
         <v>13512044</v>
       </c>
@@ -16135,7 +16141,7 @@
     </row>
     <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:27" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="171" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="14"/>
@@ -16163,24 +16169,24 @@
       <c r="K10" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="115" t="s">
+      <c r="L10" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115" t="s">
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115" t="s">
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
       <c r="X10" s="123" t="s">
         <v>68</v>
       </c>
@@ -16195,16 +16201,16 @@
       </c>
     </row>
     <row r="11" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="159"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
       <c r="L11" s="31" t="s">
         <v>44</v>
       </c>
@@ -16241,16 +16247,16 @@
       <c r="W11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="134"/>
     </row>
     <row r="12" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="175">
         <v>1</v>
       </c>
       <c r="E12" s="39">
@@ -16332,13 +16338,13 @@
         <f>POWER(Y12,2)</f>
         <v>0.403225</v>
       </c>
-      <c r="AA12" s="172">
+      <c r="AA12" s="175">
         <f>SUM(Z12:Z14)/2</f>
         <v>0.44231640624999996</v>
       </c>
     </row>
     <row r="13" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="173"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="40">
         <v>1</v>
       </c>
@@ -16422,10 +16428,10 @@
         <f t="shared" ref="Z13:Z41" si="14">POWER(Y13,2)</f>
         <v>0.28890624999999998</v>
       </c>
-      <c r="AA13" s="173"/>
+      <c r="AA13" s="176"/>
     </row>
     <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="174"/>
+      <c r="D14" s="177"/>
       <c r="E14" s="41">
         <v>1</v>
       </c>
@@ -16509,10 +16515,10 @@
         <f t="shared" si="14"/>
         <v>0.19250156249999997</v>
       </c>
-      <c r="AA14" s="174"/>
+      <c r="AA14" s="177"/>
     </row>
     <row r="15" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="175">
+      <c r="D15" s="172">
         <v>2</v>
       </c>
       <c r="E15" s="42">
@@ -16598,13 +16604,13 @@
         <f>POWER(Y15,2)</f>
         <v>0.17674667015624998</v>
       </c>
-      <c r="AA15" s="175">
+      <c r="AA15" s="172">
         <f>SUM(Z15:Z17)/2</f>
         <v>0.15152906623535156</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D16" s="176"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="43">
         <v>1</v>
       </c>
@@ -16688,10 +16694,10 @@
         <f t="shared" si="14"/>
         <v>9.9875750976562497E-2</v>
       </c>
-      <c r="AA16" s="176"/>
+      <c r="AA16" s="173"/>
     </row>
     <row r="17" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="177"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="44">
         <v>1</v>
       </c>
@@ -16775,10 +16781,10 @@
         <f t="shared" si="14"/>
         <v>2.6435711337890657E-2</v>
       </c>
-      <c r="AA17" s="177"/>
+      <c r="AA17" s="174"/>
     </row>
     <row r="18" spans="4:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="172">
+      <c r="D18" s="175">
         <v>3</v>
       </c>
       <c r="E18" s="39">
@@ -16864,13 +16870,13 @@
         <f>POWER(Y18,2)</f>
         <v>8.4178082490477507E-2</v>
       </c>
-      <c r="AA18" s="172">
+      <c r="AA18" s="175">
         <f>SUM(Z18:Z20)/2</f>
         <v>6.4708189170634881E-2</v>
       </c>
     </row>
     <row r="19" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D19" s="173"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="40">
         <v>1</v>
       </c>
@@ -16954,10 +16960,10 @@
         <f t="shared" si="14"/>
         <v>4.4452023143609583E-2</v>
       </c>
-      <c r="AA19" s="173"/>
+      <c r="AA19" s="176"/>
     </row>
     <row r="20" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="174"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="41">
         <v>1</v>
       </c>
@@ -17041,10 +17047,10 @@
         <f t="shared" si="14"/>
         <v>7.8627270718267805E-4</v>
       </c>
-      <c r="AA20" s="174"/>
+      <c r="AA20" s="177"/>
     </row>
     <row r="21" spans="4:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="175">
+      <c r="D21" s="172">
         <v>4</v>
       </c>
       <c r="E21" s="42">
@@ -17130,13 +17136,13 @@
         <f>POWER(Y21,2)</f>
         <v>4.3456579803094558E-2</v>
       </c>
-      <c r="AA21" s="175">
+      <c r="AA21" s="172">
         <f>SUM(Z21:Z23)/2</f>
         <v>3.5346264171970572E-2</v>
       </c>
     </row>
     <row r="22" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="176"/>
+      <c r="D22" s="173"/>
       <c r="E22" s="43">
         <v>1</v>
       </c>
@@ -17220,10 +17226,10 @@
         <f t="shared" si="14"/>
         <v>2.5922946690063755E-2</v>
       </c>
-      <c r="AA22" s="176"/>
+      <c r="AA22" s="173"/>
     </row>
     <row r="23" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="177"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="44">
         <v>1</v>
       </c>
@@ -17307,10 +17313,10 @@
         <f t="shared" si="14"/>
         <v>1.3130018507828307E-3</v>
       </c>
-      <c r="AA23" s="177"/>
+      <c r="AA23" s="174"/>
     </row>
     <row r="24" spans="4:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="172">
+      <c r="D24" s="175">
         <v>5</v>
       </c>
       <c r="E24" s="39">
@@ -17396,13 +17402,13 @@
         <f>POWER(Y24,2)</f>
         <v>2.4229103143976083E-2</v>
       </c>
-      <c r="AA24" s="172">
+      <c r="AA24" s="175">
         <f>SUM(Z24:Z26)/2</f>
         <v>2.3662426986100642E-2</v>
       </c>
     </row>
     <row r="25" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D25" s="173"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="40">
         <v>1</v>
       </c>
@@ -17486,10 +17492,10 @@
         <f t="shared" si="14"/>
         <v>1.8779279696622249E-2</v>
       </c>
-      <c r="AA25" s="173"/>
+      <c r="AA25" s="176"/>
     </row>
     <row r="26" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="174"/>
+      <c r="D26" s="177"/>
       <c r="E26" s="41">
         <v>1</v>
       </c>
@@ -17573,10 +17579,10 @@
         <f t="shared" si="14"/>
         <v>4.3164711316029548E-3</v>
       </c>
-      <c r="AA26" s="174"/>
+      <c r="AA26" s="177"/>
     </row>
     <row r="27" spans="4:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="175">
+      <c r="D27" s="172">
         <v>6</v>
       </c>
       <c r="E27" s="42">
@@ -17662,13 +17668,13 @@
         <f>POWER(Y27,2)</f>
         <v>1.4523237794564036E-2</v>
       </c>
-      <c r="AA27" s="175">
+      <c r="AA27" s="172">
         <f>SUM(Z27:Z29)/2</f>
         <v>1.8090461977955739E-2</v>
       </c>
     </row>
     <row r="28" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D28" s="176"/>
+      <c r="D28" s="173"/>
       <c r="E28" s="43">
         <v>1</v>
       </c>
@@ -17752,10 +17758,10 @@
         <f t="shared" si="14"/>
         <v>1.5576910090615124E-2</v>
       </c>
-      <c r="AA28" s="176"/>
+      <c r="AA28" s="173"/>
     </row>
     <row r="29" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="177"/>
+      <c r="D29" s="174"/>
       <c r="E29" s="44">
         <v>1</v>
       </c>
@@ -17839,10 +17845,10 @@
         <f t="shared" si="14"/>
         <v>6.0807760707323154E-3</v>
       </c>
-      <c r="AA29" s="177"/>
+      <c r="AA29" s="174"/>
     </row>
     <row r="30" spans="4:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="172">
+      <c r="D30" s="175">
         <v>7</v>
       </c>
       <c r="E30" s="39">
@@ -17928,13 +17934,13 @@
         <f>POWER(Y30,2)</f>
         <v>9.3087613059175973E-3</v>
       </c>
-      <c r="AA30" s="172">
+      <c r="AA30" s="175">
         <f>SUM(Z30:Z32)/2</f>
         <v>1.4926119833157264E-2</v>
       </c>
     </row>
     <row r="31" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D31" s="173"/>
+      <c r="D31" s="176"/>
       <c r="E31" s="40">
         <v>1</v>
       </c>
@@ -18018,10 +18024,10 @@
         <f t="shared" si="14"/>
         <v>1.3847018577892023E-2</v>
       </c>
-      <c r="AA31" s="173"/>
+      <c r="AA31" s="176"/>
     </row>
     <row r="32" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="174"/>
+      <c r="D32" s="177"/>
       <c r="E32" s="41">
         <v>1</v>
       </c>
@@ -18105,10 +18111,10 @@
         <f t="shared" si="14"/>
         <v>6.6964597825049064E-3</v>
       </c>
-      <c r="AA32" s="174"/>
+      <c r="AA32" s="177"/>
     </row>
     <row r="33" spans="4:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="175">
+      <c r="D33" s="172">
         <v>8</v>
       </c>
       <c r="E33" s="42">
@@ -18194,13 +18200,13 @@
         <f>POWER(Y33,2)</f>
         <v>6.3404891614152244E-3</v>
       </c>
-      <c r="AA33" s="175">
+      <c r="AA33" s="172">
         <f>SUM(Z33:Z35)/2</f>
         <v>1.2838974864654488E-2</v>
       </c>
     </row>
     <row r="34" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D34" s="176"/>
+      <c r="D34" s="173"/>
       <c r="E34" s="43">
         <v>1</v>
       </c>
@@ -18284,10 +18290,10 @@
         <f t="shared" si="14"/>
         <v>1.2677849409810616E-2</v>
       </c>
-      <c r="AA34" s="176"/>
+      <c r="AA34" s="173"/>
     </row>
     <row r="35" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="177"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="44">
         <v>1</v>
       </c>
@@ -18371,10 +18377,10 @@
         <f t="shared" si="14"/>
         <v>6.6596111580831362E-3</v>
       </c>
-      <c r="AA35" s="177"/>
+      <c r="AA35" s="174"/>
     </row>
     <row r="36" spans="4:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="172">
+      <c r="D36" s="175">
         <v>9</v>
       </c>
       <c r="E36" s="39">
@@ -18460,13 +18466,13 @@
         <f>POWER(Y36,2)</f>
         <v>4.5577144452203866E-3</v>
       </c>
-      <c r="AA36" s="172">
+      <c r="AA36" s="175">
         <f>SUM(Z36:Z38)/2</f>
         <v>1.1294457937092066E-2</v>
       </c>
     </row>
     <row r="37" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D37" s="173"/>
+      <c r="D37" s="176"/>
       <c r="E37" s="40">
         <v>1</v>
       </c>
@@ -18550,10 +18556,10 @@
         <f t="shared" si="14"/>
         <v>1.1717349506447599E-2</v>
       </c>
-      <c r="AA37" s="173"/>
+      <c r="AA37" s="176"/>
     </row>
     <row r="38" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="174"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="41">
         <v>1</v>
       </c>
@@ -18637,10 +18643,10 @@
         <f t="shared" si="14"/>
         <v>6.3138519225161456E-3</v>
       </c>
-      <c r="AA38" s="174"/>
+      <c r="AA38" s="177"/>
     </row>
     <row r="39" spans="4:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="175">
+      <c r="D39" s="172">
         <v>10</v>
       </c>
       <c r="E39" s="42">
@@ -18726,13 +18732,13 @@
         <f>POWER(Y39,2)</f>
         <v>3.4321839439551967E-3</v>
       </c>
-      <c r="AA39" s="175">
+      <c r="AA39" s="172">
         <f>SUM(Z39:Z41)/2</f>
         <v>1.0056526811241849E-2</v>
       </c>
     </row>
     <row r="40" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="176"/>
+      <c r="D40" s="173"/>
       <c r="E40" s="43">
         <v>1</v>
       </c>
@@ -18816,10 +18822,10 @@
         <f t="shared" si="14"/>
         <v>1.0834899348630703E-2</v>
       </c>
-      <c r="AA40" s="176"/>
+      <c r="AA40" s="173"/>
     </row>
     <row r="41" spans="4:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="177"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="44">
         <v>1</v>
       </c>
@@ -18903,11 +18909,33 @@
         <f t="shared" si="14"/>
         <v>5.845970329897799E-3</v>
       </c>
-      <c r="AA41" s="177"/>
+      <c r="AA41" s="174"/>
     </row>
     <row r="42" spans="4:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="AA12:AA14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="AA15:AA17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="AA18:AA20"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="AA39:AA41"/>
     <mergeCell ref="B2:C2"/>
@@ -18924,28 +18952,6 @@
     <mergeCell ref="AA24:AA26"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="AA27:AA29"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="AA12:AA14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="AA15:AA17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="AA18:AA20"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="'Daftar Isi'!A1" display="Daftar Isi"/>
@@ -18974,19 +18980,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="102"/>
       <c r="D2" s="3">
         <v>13512032</v>
       </c>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="3">
         <v>13512044</v>
       </c>
@@ -19022,73 +19028,73 @@
     </row>
     <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:31" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="171" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="159" t="s">
+      <c r="D10" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="159" t="s">
+      <c r="E10" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="159" t="s">
+      <c r="F10" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="159" t="s">
+      <c r="G10" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="159" t="s">
+      <c r="H10" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="159" t="s">
+      <c r="I10" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="159" t="s">
+      <c r="J10" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="159" t="s">
+      <c r="K10" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="159" t="s">
+      <c r="L10" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="120" t="s">
+      <c r="M10" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120" t="s">
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120" t="s">
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="159" t="s">
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="159" t="s">
+      <c r="AC10" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="AD10" s="159" t="s">
+      <c r="AD10" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="AE10" s="159" t="s">
+      <c r="AE10" s="171" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="159"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="14"/>
       <c r="D11" s="123"/>
       <c r="E11" s="123"/>
@@ -19153,7 +19159,7 @@
       <c r="B12" s="5">
         <v>0.1</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="175">
         <v>1</v>
       </c>
       <c r="E12" s="27">
@@ -19249,13 +19255,13 @@
         <f>POWER(AC12,2)</f>
         <v>43099877.744170301</v>
       </c>
-      <c r="AE12" s="172">
+      <c r="AE12" s="175">
         <f>SUM(AD12:AD17)/2</f>
         <v>210409302.92212975</v>
       </c>
     </row>
     <row r="13" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="173"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="28">
         <v>1</v>
       </c>
@@ -19354,10 +19360,10 @@
         <f t="shared" ref="AD13:AD71" si="16">POWER(AC13,2)</f>
         <v>38593540.115958728</v>
       </c>
-      <c r="AE13" s="173"/>
+      <c r="AE13" s="176"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D14" s="173"/>
+      <c r="D14" s="176"/>
       <c r="E14" s="28">
         <v>1</v>
       </c>
@@ -19456,10 +19462,10 @@
         <f t="shared" si="16"/>
         <v>36710016.178362824</v>
       </c>
-      <c r="AE14" s="173"/>
+      <c r="AE14" s="176"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D15" s="173"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="28">
         <v>1</v>
       </c>
@@ -19558,10 +19564,10 @@
         <f t="shared" si="16"/>
         <v>104694768.45621398</v>
       </c>
-      <c r="AE15" s="173"/>
+      <c r="AE15" s="176"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D16" s="173"/>
+      <c r="D16" s="176"/>
       <c r="E16" s="28">
         <v>1</v>
       </c>
@@ -19660,10 +19666,10 @@
         <f t="shared" si="16"/>
         <v>92686735.680917501</v>
       </c>
-      <c r="AE16" s="173"/>
+      <c r="AE16" s="176"/>
     </row>
     <row r="17" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="174"/>
+      <c r="D17" s="177"/>
       <c r="E17" s="29">
         <v>1</v>
       </c>
@@ -19762,10 +19768,10 @@
         <f t="shared" si="16"/>
         <v>105033667.66863623</v>
       </c>
-      <c r="AE17" s="174"/>
+      <c r="AE17" s="177"/>
     </row>
     <row r="18" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="175">
+      <c r="D18" s="172">
         <v>2</v>
       </c>
       <c r="E18" s="24">
@@ -19866,13 +19872,13 @@
         <f>POWER(AC18,2)</f>
         <v>1575915564601337</v>
       </c>
-      <c r="AE18" s="175">
+      <c r="AE18" s="172">
         <f>SUM(AD18:AD23)/2</f>
         <v>7696766447503126</v>
       </c>
     </row>
     <row r="19" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D19" s="176"/>
+      <c r="D19" s="173"/>
       <c r="E19" s="25">
         <v>1</v>
       </c>
@@ -19971,10 +19977,10 @@
         <f t="shared" si="16"/>
         <v>1411133577845961.2</v>
       </c>
-      <c r="AE19" s="176"/>
+      <c r="AE19" s="173"/>
     </row>
     <row r="20" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D20" s="176"/>
+      <c r="D20" s="173"/>
       <c r="E20" s="25">
         <v>1</v>
       </c>
@@ -20073,10 +20079,10 @@
         <f t="shared" si="16"/>
         <v>1342241777657114.5</v>
       </c>
-      <c r="AE20" s="176"/>
+      <c r="AE20" s="173"/>
     </row>
     <row r="21" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D21" s="176"/>
+      <c r="D21" s="173"/>
       <c r="E21" s="25">
         <v>1</v>
       </c>
@@ -20175,10 +20181,10 @@
         <f t="shared" si="16"/>
         <v>3830367737213374</v>
       </c>
-      <c r="AE21" s="176"/>
+      <c r="AE21" s="173"/>
     </row>
     <row r="22" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D22" s="176"/>
+      <c r="D22" s="173"/>
       <c r="E22" s="25">
         <v>1</v>
       </c>
@@ -20277,10 +20283,10 @@
         <f t="shared" si="16"/>
         <v>3391084357148257</v>
       </c>
-      <c r="AE22" s="176"/>
+      <c r="AE22" s="173"/>
     </row>
     <row r="23" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="177"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="26">
         <v>1</v>
       </c>
@@ -20379,10 +20385,10 @@
         <f t="shared" si="16"/>
         <v>3842789880540207.5</v>
       </c>
-      <c r="AE23" s="177"/>
+      <c r="AE23" s="174"/>
     </row>
     <row r="24" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="172">
+      <c r="D24" s="175">
         <v>3</v>
       </c>
       <c r="E24" s="27">
@@ -20483,13 +20489,13 @@
         <f>POWER(AC24,2)</f>
         <v>5.7620129730663824E+22</v>
       </c>
-      <c r="AE24" s="172">
+      <c r="AE24" s="175">
         <f>SUM(AD24:AD29)/2</f>
         <v>2.8141654853581541E+23</v>
       </c>
     </row>
     <row r="25" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D25" s="173"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="28">
         <v>1</v>
       </c>
@@ -20588,10 +20594,10 @@
         <f t="shared" si="16"/>
         <v>5.1595213409532598E+22</v>
       </c>
-      <c r="AE25" s="173"/>
+      <c r="AE25" s="176"/>
     </row>
     <row r="26" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D26" s="173"/>
+      <c r="D26" s="176"/>
       <c r="E26" s="28">
         <v>1</v>
       </c>
@@ -20690,10 +20696,10 @@
         <f t="shared" si="16"/>
         <v>4.9076325401699981E+22</v>
       </c>
-      <c r="AE26" s="173"/>
+      <c r="AE26" s="176"/>
     </row>
     <row r="27" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D27" s="173"/>
+      <c r="D27" s="176"/>
       <c r="E27" s="28">
         <v>1</v>
       </c>
@@ -20792,10 +20798,10 @@
         <f t="shared" si="16"/>
         <v>1.4004957930876702E+23</v>
       </c>
-      <c r="AE27" s="173"/>
+      <c r="AE27" s="176"/>
     </row>
     <row r="28" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D28" s="173"/>
+      <c r="D28" s="176"/>
       <c r="E28" s="28">
         <v>1</v>
       </c>
@@ -20894,10 +20900,10 @@
         <f t="shared" si="16"/>
         <v>1.2398807927541228E+23</v>
       </c>
-      <c r="AE28" s="173"/>
+      <c r="AE28" s="176"/>
     </row>
     <row r="29" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="174"/>
+      <c r="D29" s="177"/>
       <c r="E29" s="29">
         <v>1</v>
       </c>
@@ -20996,10 +21002,10 @@
         <f t="shared" si="16"/>
         <v>1.4050376994555515E+23</v>
       </c>
-      <c r="AE29" s="174"/>
+      <c r="AE29" s="177"/>
     </row>
     <row r="30" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="175">
+      <c r="D30" s="172">
         <v>4</v>
       </c>
       <c r="E30" s="24">
@@ -21100,13 +21106,13 @@
         <f>POWER(AC30,2)</f>
         <v>2.1067621885928644E+30</v>
       </c>
-      <c r="AE30" s="175">
+      <c r="AE30" s="172">
         <f>SUM(AD30:AD35)/2</f>
         <v>1.0289420493860292E+31</v>
       </c>
     </row>
     <row r="31" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D31" s="176"/>
+      <c r="D31" s="173"/>
       <c r="E31" s="25">
         <v>1</v>
       </c>
@@ -21205,10 +21211,10 @@
         <f t="shared" si="16"/>
         <v>1.8864734465494934E+30</v>
       </c>
-      <c r="AE31" s="176"/>
+      <c r="AE31" s="173"/>
     </row>
     <row r="32" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D32" s="176"/>
+      <c r="D32" s="173"/>
       <c r="E32" s="25">
         <v>1</v>
       </c>
@@ -21307,10 +21313,10 @@
         <f t="shared" si="16"/>
         <v>1.7943754586219607E+30</v>
       </c>
-      <c r="AE32" s="176"/>
+      <c r="AE32" s="173"/>
     </row>
     <row r="33" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D33" s="176"/>
+      <c r="D33" s="173"/>
       <c r="E33" s="25">
         <v>1</v>
       </c>
@@ -21409,10 +21415,10 @@
         <f t="shared" si="16"/>
         <v>5.1206264130618853E+30</v>
       </c>
-      <c r="AE33" s="176"/>
+      <c r="AE33" s="173"/>
     </row>
     <row r="34" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D34" s="176"/>
+      <c r="D34" s="173"/>
       <c r="E34" s="25">
         <v>1</v>
       </c>
@@ -21511,10 +21517,10 @@
         <f t="shared" si="16"/>
         <v>4.5333705161867786E+30</v>
       </c>
-      <c r="AE34" s="176"/>
+      <c r="AE34" s="173"/>
     </row>
     <row r="35" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="177"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="26">
         <v>1</v>
       </c>
@@ -21613,10 +21619,10 @@
         <f t="shared" si="16"/>
         <v>5.1372329647075996E+30</v>
       </c>
-      <c r="AE35" s="177"/>
+      <c r="AE35" s="174"/>
     </row>
     <row r="36" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="172">
+      <c r="D36" s="175">
         <v>5</v>
       </c>
       <c r="E36" s="27">
@@ -21717,13 +21723,13 @@
         <f>POWER(AC36,2)</f>
         <v>7.7029450298426468E+37</v>
       </c>
-      <c r="AE36" s="172">
+      <c r="AE36" s="175">
         <f>SUM(AD36:AD41)/2</f>
         <v>3.7621161459177582E+38</v>
       </c>
     </row>
     <row r="37" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D37" s="173"/>
+      <c r="D37" s="176"/>
       <c r="E37" s="28">
         <v>1</v>
       </c>
@@ -21822,10 +21828,10 @@
         <f t="shared" si="16"/>
         <v>6.8975043019612383E+37</v>
       </c>
-      <c r="AE37" s="173"/>
+      <c r="AE37" s="176"/>
     </row>
     <row r="38" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D38" s="173"/>
+      <c r="D38" s="176"/>
       <c r="E38" s="28">
         <v>1</v>
       </c>
@@ -21924,10 +21930,10 @@
         <f t="shared" si="16"/>
         <v>6.560766846634713E+37</v>
       </c>
-      <c r="AE38" s="173"/>
+      <c r="AE38" s="176"/>
     </row>
     <row r="39" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D39" s="173"/>
+      <c r="D39" s="176"/>
       <c r="E39" s="28">
         <v>1</v>
       </c>
@@ -22026,10 +22032,10 @@
         <f t="shared" si="16"/>
         <v>1.8722523117106703E+38</v>
       </c>
-      <c r="AE39" s="173"/>
+      <c r="AE39" s="176"/>
     </row>
     <row r="40" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D40" s="173"/>
+      <c r="D40" s="176"/>
       <c r="E40" s="28">
         <v>1</v>
       </c>
@@ -22128,10 +22134,10 @@
         <f t="shared" si="16"/>
         <v>1.6575342046280058E+38</v>
       </c>
-      <c r="AE40" s="173"/>
+      <c r="AE40" s="176"/>
     </row>
     <row r="41" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="174"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="29">
         <v>1</v>
       </c>
@@ -22230,10 +22236,10 @@
         <f t="shared" si="16"/>
         <v>1.8783241576529798E+38</v>
       </c>
-      <c r="AE41" s="174"/>
+      <c r="AE41" s="177"/>
     </row>
     <row r="42" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="175">
+      <c r="D42" s="172">
         <v>6</v>
       </c>
       <c r="E42" s="24">
@@ -22334,13 +22340,13 @@
         <f>POWER(AC42,2)</f>
         <v>2.8164242957297592E+45</v>
       </c>
-      <c r="AE42" s="175">
+      <c r="AE42" s="172">
         <f>SUM(AD42:AD47)/2</f>
         <v>1.375540819215274E+46</v>
       </c>
     </row>
     <row r="43" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D43" s="176"/>
+      <c r="D43" s="173"/>
       <c r="E43" s="25">
         <v>1</v>
       </c>
@@ -22439,10 +22445,10 @@
         <f t="shared" si="16"/>
         <v>2.5219313678967009E+45</v>
       </c>
-      <c r="AE43" s="176"/>
+      <c r="AE43" s="173"/>
     </row>
     <row r="44" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D44" s="176"/>
+      <c r="D44" s="173"/>
       <c r="E44" s="25">
         <v>1</v>
       </c>
@@ -22541,10 +22547,10 @@
         <f t="shared" si="16"/>
         <v>2.3988102049142863E+45</v>
       </c>
-      <c r="AE44" s="176"/>
+      <c r="AE44" s="173"/>
     </row>
     <row r="45" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D45" s="176"/>
+      <c r="D45" s="173"/>
       <c r="E45" s="25">
         <v>1</v>
       </c>
@@ -22643,10 +22649,10 @@
         <f t="shared" si="16"/>
         <v>6.845507631184348E+45</v>
       </c>
-      <c r="AE45" s="176"/>
+      <c r="AE45" s="173"/>
     </row>
     <row r="46" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D46" s="176"/>
+      <c r="D46" s="173"/>
       <c r="E46" s="25">
         <v>1</v>
       </c>
@@ -22745,10 +22751,10 @@
         <f t="shared" si="16"/>
         <v>6.060434790630696E+45</v>
       </c>
-      <c r="AE46" s="176"/>
+      <c r="AE46" s="173"/>
     </row>
     <row r="47" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="177"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="26">
         <v>1</v>
       </c>
@@ -22847,10 +22853,10 @@
         <f t="shared" si="16"/>
         <v>6.8677080939496899E+45</v>
       </c>
-      <c r="AE47" s="177"/>
+      <c r="AE47" s="174"/>
     </row>
     <row r="48" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="172">
+      <c r="D48" s="175">
         <v>7</v>
       </c>
       <c r="E48" s="27">
@@ -22951,13 +22957,13 @@
         <f>POWER(AC48,2)</f>
         <v>1.0297679371780374E+53</v>
       </c>
-      <c r="AE48" s="172">
+      <c r="AE48" s="175">
         <f>SUM(AD48:AD53)/2</f>
         <v>5.0293836552083739E+53</v>
       </c>
     </row>
     <row r="49" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D49" s="173"/>
+      <c r="D49" s="176"/>
       <c r="E49" s="28">
         <v>1</v>
       </c>
@@ -23056,10 +23062,10 @@
         <f t="shared" si="16"/>
         <v>9.2209262161284783E+52</v>
       </c>
-      <c r="AE49" s="173"/>
+      <c r="AE49" s="176"/>
     </row>
     <row r="50" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D50" s="173"/>
+      <c r="D50" s="176"/>
       <c r="E50" s="28">
         <v>1</v>
       </c>
@@ -23158,10 +23164,10 @@
         <f t="shared" si="16"/>
         <v>8.7707588666293469E+52</v>
       </c>
-      <c r="AE50" s="173"/>
+      <c r="AE50" s="176"/>
     </row>
     <row r="51" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D51" s="173"/>
+      <c r="D51" s="176"/>
       <c r="E51" s="28">
         <v>1</v>
       </c>
@@ -23260,10 +23266,10 @@
         <f t="shared" si="16"/>
         <v>2.5029198487562018E+53</v>
       </c>
-      <c r="AE51" s="173"/>
+      <c r="AE51" s="176"/>
     </row>
     <row r="52" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D52" s="173"/>
+      <c r="D52" s="176"/>
       <c r="E52" s="28">
         <v>1</v>
       </c>
@@ -23362,10 +23368,10 @@
         <f t="shared" si="16"/>
         <v>2.2158740223240167E+53</v>
       </c>
-      <c r="AE52" s="173"/>
+      <c r="AE52" s="176"/>
     </row>
     <row r="53" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="174"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="29">
         <v>1</v>
       </c>
@@ -23464,10 +23470,10 @@
         <f t="shared" si="16"/>
         <v>2.51103699388271E+53</v>
       </c>
-      <c r="AE53" s="174"/>
+      <c r="AE53" s="177"/>
     </row>
     <row r="54" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="175">
+      <c r="D54" s="172">
         <v>8</v>
       </c>
       <c r="E54" s="24">
@@ -23568,13 +23574,13 @@
         <f>POWER(AC54,2)</f>
         <v>3.7651358357038552E+60</v>
       </c>
-      <c r="AE54" s="175">
+      <c r="AE54" s="172">
         <f>SUM(AD54:AD59)/2</f>
         <v>1.8388912635618768E+61</v>
       </c>
     </row>
     <row r="55" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D55" s="176"/>
+      <c r="D55" s="173"/>
       <c r="E55" s="25">
         <v>1</v>
       </c>
@@ -23673,10 +23679,10 @@
         <f t="shared" si="16"/>
         <v>3.3714430680243682E+60</v>
       </c>
-      <c r="AE55" s="176"/>
+      <c r="AE55" s="173"/>
     </row>
     <row r="56" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D56" s="176"/>
+      <c r="D56" s="173"/>
       <c r="E56" s="25">
         <v>1</v>
       </c>
@@ -23775,10 +23781,10 @@
         <f t="shared" si="16"/>
         <v>3.2068485843091546E+60</v>
       </c>
-      <c r="AE56" s="176"/>
+      <c r="AE56" s="173"/>
     </row>
     <row r="57" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D57" s="176"/>
+      <c r="D57" s="173"/>
       <c r="E57" s="25">
         <v>1</v>
       </c>
@@ -23877,10 +23883,10 @@
         <f t="shared" si="16"/>
         <v>9.1514144849677451E+60</v>
       </c>
-      <c r="AE57" s="176"/>
+      <c r="AE57" s="173"/>
     </row>
     <row r="58" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D58" s="176"/>
+      <c r="D58" s="173"/>
       <c r="E58" s="25">
         <v>1</v>
       </c>
@@ -23979,10 +23985,10 @@
         <f t="shared" si="16"/>
         <v>8.1018901323735382E+60</v>
       </c>
-      <c r="AE58" s="176"/>
+      <c r="AE58" s="173"/>
     </row>
     <row r="59" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="177"/>
+      <c r="D59" s="174"/>
       <c r="E59" s="26">
         <v>1</v>
       </c>
@@ -24081,10 +24087,10 @@
         <f t="shared" si="16"/>
         <v>9.1810931658588732E+60</v>
       </c>
-      <c r="AE59" s="177"/>
+      <c r="AE59" s="174"/>
     </row>
     <row r="60" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="172">
+      <c r="D60" s="175">
         <v>9</v>
       </c>
       <c r="E60" s="27">
@@ -24185,13 +24191,13 @@
         <f>POWER(AC60,2)</f>
         <v>1.3766449070214582E+68</v>
       </c>
-      <c r="AE60" s="172">
+      <c r="AE60" s="175">
         <f>SUM(AD60:AD65)/2</f>
         <v>6.7235297822275581E+68</v>
       </c>
     </row>
     <row r="61" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D61" s="173"/>
+      <c r="D61" s="176"/>
       <c r="E61" s="28">
         <v>1</v>
       </c>
@@ -24290,10 +24296,10 @@
         <f t="shared" si="16"/>
         <v>1.2326991990292713E+68</v>
       </c>
-      <c r="AE61" s="173"/>
+      <c r="AE61" s="176"/>
     </row>
     <row r="62" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D62" s="173"/>
+      <c r="D62" s="176"/>
       <c r="E62" s="28">
         <v>1</v>
       </c>
@@ -24392,10 +24398,10 @@
         <f t="shared" si="16"/>
         <v>1.1725185926400683E+68</v>
       </c>
-      <c r="AE62" s="173"/>
+      <c r="AE62" s="176"/>
     </row>
     <row r="63" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D63" s="173"/>
+      <c r="D63" s="176"/>
       <c r="E63" s="28">
         <v>1</v>
       </c>
@@ -24494,10 +24500,10 @@
         <f t="shared" si="16"/>
         <v>3.3460275253039105E+68</v>
       </c>
-      <c r="AE63" s="173"/>
+      <c r="AE63" s="176"/>
     </row>
     <row r="64" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D64" s="173"/>
+      <c r="D64" s="176"/>
       <c r="E64" s="28">
         <v>1</v>
       </c>
@@ -24596,10 +24602,10 @@
         <f t="shared" si="16"/>
         <v>2.9622904125302067E+68</v>
       </c>
-      <c r="AE64" s="173"/>
+      <c r="AE64" s="176"/>
     </row>
     <row r="65" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="174"/>
+      <c r="D65" s="177"/>
       <c r="E65" s="29">
         <v>1</v>
       </c>
@@ -24698,10 +24704,10 @@
         <f t="shared" si="16"/>
         <v>3.3568789279302005E+68</v>
       </c>
-      <c r="AE65" s="174"/>
+      <c r="AE65" s="177"/>
     </row>
     <row r="66" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="175">
+      <c r="D66" s="172">
         <v>10</v>
       </c>
       <c r="E66" s="24">
@@ -24802,13 +24808,13 @@
         <f>POWER(AC66,2)</f>
         <v>5.0334205264438622E+75</v>
       </c>
-      <c r="AE66" s="175">
+      <c r="AE66" s="172">
         <f>SUM(AD66:AD71)/2</f>
         <v>2.458321143194649E+76</v>
       </c>
     </row>
     <row r="67" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D67" s="176"/>
+      <c r="D67" s="173"/>
       <c r="E67" s="25">
         <v>1</v>
       </c>
@@ -24907,10 +24913,10 @@
         <f t="shared" si="16"/>
         <v>4.5071124875255312E+75</v>
       </c>
-      <c r="AE67" s="176"/>
+      <c r="AE67" s="173"/>
     </row>
     <row r="68" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D68" s="176"/>
+      <c r="D68" s="173"/>
       <c r="E68" s="25">
         <v>1</v>
       </c>
@@ -25009,10 +25015,10 @@
         <f t="shared" si="16"/>
         <v>4.2870744094792163E+75</v>
       </c>
-      <c r="AE68" s="176"/>
+      <c r="AE68" s="173"/>
     </row>
     <row r="69" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D69" s="176"/>
+      <c r="D69" s="173"/>
       <c r="E69" s="25">
         <v>1</v>
       </c>
@@ -25111,10 +25117,10 @@
         <f t="shared" si="16"/>
         <v>1.2234065256777467E+76</v>
       </c>
-      <c r="AE69" s="176"/>
+      <c r="AE69" s="173"/>
     </row>
     <row r="70" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D70" s="176"/>
+      <c r="D70" s="173"/>
       <c r="E70" s="25">
         <v>1</v>
       </c>
@@ -25213,10 +25219,10 @@
         <f t="shared" si="16"/>
         <v>1.0831008992709683E+76</v>
       </c>
-      <c r="AE70" s="176"/>
+      <c r="AE70" s="173"/>
     </row>
     <row r="71" spans="4:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="177"/>
+      <c r="D71" s="174"/>
       <c r="E71" s="26">
         <v>1</v>
       </c>
@@ -25315,19 +25321,26 @@
         <f t="shared" si="16"/>
         <v>1.2273741190957221E+76</v>
       </c>
-      <c r="AE71" s="177"/>
+      <c r="AE71" s="174"/>
     </row>
     <row r="72" spans="4:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D66:D71"/>
-    <mergeCell ref="AE66:AE71"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="AE36:AE41"/>
-    <mergeCell ref="D42:D47"/>
-    <mergeCell ref="AE42:AE47"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="AE48:AE53"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="AE12:AE17"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="R10:V10"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D54:D59"/>
@@ -25344,21 +25357,14 @@
     <mergeCell ref="AD10:AD11"/>
     <mergeCell ref="AC10:AC11"/>
     <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="AE12:AE17"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="AE66:AE71"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="AE36:AE41"/>
+    <mergeCell ref="D42:D47"/>
+    <mergeCell ref="AE42:AE47"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="AE48:AE53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="'Daftar Isi'!A1" display="Daftar Isi"/>
@@ -25392,19 +25398,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="190"/>
+      <c r="C2" s="178"/>
       <c r="D2" s="76">
         <v>13512032</v>
       </c>
     </row>
     <row r="3" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="190"/>
+      <c r="C3" s="178"/>
       <c r="D3" s="76">
         <v>13512044</v>
       </c>
@@ -25447,128 +25453,128 @@
       <c r="C9" s="45"/>
     </row>
     <row r="10" spans="2:68" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="159" t="s">
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="159" t="s">
+      <c r="K10" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="159" t="s">
+      <c r="L10" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="159" t="s">
+      <c r="M10" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="159" t="s">
+      <c r="N10" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="159" t="s">
+      <c r="O10" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="159" t="s">
+      <c r="P10" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="120" t="s">
+      <c r="Q10" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="159" t="s">
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="Z10" s="159"/>
-      <c r="AA10" s="159" t="s">
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="AB10" s="159"/>
-      <c r="AC10" s="159" t="s">
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="AD10" s="159" t="s">
+      <c r="AD10" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="AE10" s="159"/>
-      <c r="AF10" s="159"/>
-      <c r="AG10" s="120" t="s">
+      <c r="AE10" s="171"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="AH10" s="120"/>
-      <c r="AI10" s="120" t="s">
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="120" t="s">
+      <c r="AJ10" s="127"/>
+      <c r="AK10" s="127"/>
+      <c r="AL10" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="AM10" s="120"/>
-      <c r="AN10" s="120"/>
-      <c r="AO10" s="120"/>
-      <c r="AP10" s="120"/>
-      <c r="AQ10" s="120"/>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="120"/>
-      <c r="AU10" s="120"/>
-      <c r="AV10" s="120"/>
-      <c r="AW10" s="120" t="s">
+      <c r="AM10" s="127"/>
+      <c r="AN10" s="127"/>
+      <c r="AO10" s="127"/>
+      <c r="AP10" s="127"/>
+      <c r="AQ10" s="127"/>
+      <c r="AR10" s="127"/>
+      <c r="AS10" s="127"/>
+      <c r="AT10" s="127"/>
+      <c r="AU10" s="127"/>
+      <c r="AV10" s="127"/>
+      <c r="AW10" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="AX10" s="120"/>
-      <c r="AY10" s="120"/>
-      <c r="AZ10" s="120"/>
-      <c r="BA10" s="120"/>
-      <c r="BB10" s="120"/>
-      <c r="BC10" s="120"/>
-      <c r="BD10" s="120"/>
-      <c r="BE10" s="120"/>
-      <c r="BF10" s="120"/>
-      <c r="BG10" s="120"/>
-      <c r="BH10" s="120" t="s">
+      <c r="AX10" s="127"/>
+      <c r="AY10" s="127"/>
+      <c r="AZ10" s="127"/>
+      <c r="BA10" s="127"/>
+      <c r="BB10" s="127"/>
+      <c r="BC10" s="127"/>
+      <c r="BD10" s="127"/>
+      <c r="BE10" s="127"/>
+      <c r="BF10" s="127"/>
+      <c r="BG10" s="127"/>
+      <c r="BH10" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="BI10" s="120"/>
-      <c r="BJ10" s="120" t="s">
+      <c r="BI10" s="127"/>
+      <c r="BJ10" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="BK10" s="120"/>
-      <c r="BL10" s="120" t="s">
+      <c r="BK10" s="127"/>
+      <c r="BL10" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="BM10" s="120"/>
-      <c r="BN10" s="159" t="s">
+      <c r="BM10" s="127"/>
+      <c r="BN10" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="BO10" s="159" t="s">
+      <c r="BO10" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="BP10" s="159" t="s">
+      <c r="BP10" s="171" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:68" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="192"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="159"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="171"/>
       <c r="K11" s="123"/>
       <c r="L11" s="123"/>
       <c r="M11" s="123"/>
@@ -25735,7 +25741,7 @@
       <c r="I12" s="62">
         <v>0.1</v>
       </c>
-      <c r="K12" s="181">
+      <c r="K12" s="183">
         <v>1</v>
       </c>
       <c r="L12" s="56">
@@ -25945,7 +25951,7 @@
         <f>POWER(BN12,2)</f>
         <v>2.2365965443342097</v>
       </c>
-      <c r="BP12" s="187">
+      <c r="BP12" s="189">
         <f>SUM(BO12:BO14)/2</f>
         <v>1.372792546572791</v>
       </c>
@@ -25958,7 +25964,7 @@
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="49"/>
-      <c r="K13" s="182"/>
+      <c r="K13" s="184"/>
       <c r="L13" s="57">
         <v>1</v>
       </c>
@@ -26177,7 +26183,7 @@
         <f t="shared" ref="BO13:BO41" si="41">POWER(BN13,2)</f>
         <v>0.25449427415150672</v>
       </c>
-      <c r="BP13" s="188"/>
+      <c r="BP13" s="190"/>
     </row>
     <row r="14" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="47"/>
@@ -26187,7 +26193,7 @@
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
-      <c r="K14" s="183"/>
+      <c r="K14" s="185"/>
       <c r="L14" s="58">
         <v>1</v>
       </c>
@@ -26406,7 +26412,7 @@
         <f t="shared" si="41"/>
         <v>0.25449427465986563</v>
       </c>
-      <c r="BP14" s="189"/>
+      <c r="BP14" s="191"/>
     </row>
     <row r="15" spans="2:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B15" s="47"/>
@@ -26416,7 +26422,7 @@
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
       <c r="H15" s="49"/>
-      <c r="K15" s="184">
+      <c r="K15" s="192">
         <v>2</v>
       </c>
       <c r="L15" s="59">
@@ -26637,7 +26643,7 @@
         <f t="shared" si="41"/>
         <v>2.2235929666526624</v>
       </c>
-      <c r="BP15" s="178">
+      <c r="BP15" s="186">
         <f t="shared" ref="BP15" si="64">SUM(BO15:BO17)/2</f>
         <v>1.3707013120831828</v>
       </c>
@@ -26650,7 +26656,7 @@
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
       <c r="H16" s="49"/>
-      <c r="K16" s="185"/>
+      <c r="K16" s="193"/>
       <c r="L16" s="60">
         <v>1</v>
       </c>
@@ -26869,7 +26875,7 @@
         <f t="shared" si="41"/>
         <v>0.25890487288648567</v>
       </c>
-      <c r="BP16" s="179"/>
+      <c r="BP16" s="187"/>
     </row>
     <row r="17" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="47"/>
@@ -26879,7 +26885,7 @@
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
-      <c r="K17" s="186"/>
+      <c r="K17" s="194"/>
       <c r="L17" s="61">
         <v>1</v>
       </c>
@@ -27098,7 +27104,7 @@
         <f t="shared" si="41"/>
         <v>0.25890478462721789</v>
       </c>
-      <c r="BP17" s="180"/>
+      <c r="BP17" s="188"/>
     </row>
     <row r="18" spans="2:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="47"/>
@@ -27108,7 +27114,7 @@
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
       <c r="H18" s="49"/>
-      <c r="K18" s="181">
+      <c r="K18" s="183">
         <v>3</v>
       </c>
       <c r="L18" s="56">
@@ -27329,7 +27335,7 @@
         <f t="shared" si="41"/>
         <v>2.2109766392557937</v>
       </c>
-      <c r="BP18" s="187">
+      <c r="BP18" s="189">
         <f t="shared" ref="BP18" si="84">SUM(BO18:BO20)/2</f>
         <v>1.3687194114284364</v>
       </c>
@@ -27342,7 +27348,7 @@
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
-      <c r="K19" s="182"/>
+      <c r="K19" s="184"/>
       <c r="L19" s="57">
         <v>1</v>
       </c>
@@ -27561,7 +27567,7 @@
         <f t="shared" si="41"/>
         <v>0.26323128950501312</v>
       </c>
-      <c r="BP19" s="188"/>
+      <c r="BP19" s="190"/>
     </row>
     <row r="20" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47"/>
@@ -27571,7 +27577,7 @@
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
       <c r="H20" s="49"/>
-      <c r="K20" s="183"/>
+      <c r="K20" s="185"/>
       <c r="L20" s="58">
         <v>1</v>
       </c>
@@ -27790,7 +27796,7 @@
         <f t="shared" si="41"/>
         <v>0.26323089409606609</v>
       </c>
-      <c r="BP20" s="189"/>
+      <c r="BP20" s="191"/>
     </row>
     <row r="21" spans="2:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="47"/>
@@ -27800,7 +27806,7 @@
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="49"/>
-      <c r="K21" s="184">
+      <c r="K21" s="192">
         <v>4</v>
       </c>
       <c r="L21" s="59">
@@ -28021,7 +28027,7 @@
         <f t="shared" si="41"/>
         <v>2.1987349506732721</v>
       </c>
-      <c r="BP21" s="178">
+      <c r="BP21" s="186">
         <f t="shared" ref="BP21" si="103">SUM(BO21:BO23)/2</f>
         <v>1.3668402611553696</v>
       </c>
@@ -28034,7 +28040,7 @@
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
       <c r="H22" s="49"/>
-      <c r="K22" s="185"/>
+      <c r="K22" s="193"/>
       <c r="L22" s="60">
         <v>1</v>
       </c>
@@ -28253,7 +28259,7 @@
         <f t="shared" si="41"/>
         <v>0.26747330665947266</v>
       </c>
-      <c r="BP22" s="179"/>
+      <c r="BP22" s="187"/>
     </row>
     <row r="23" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="47"/>
@@ -28263,7 +28269,7 @@
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
       <c r="H23" s="49"/>
-      <c r="K23" s="186"/>
+      <c r="K23" s="194"/>
       <c r="L23" s="61">
         <v>1</v>
       </c>
@@ -28482,7 +28488,7 @@
         <f t="shared" si="41"/>
         <v>0.26747226497799415</v>
       </c>
-      <c r="BP23" s="180"/>
+      <c r="BP23" s="188"/>
     </row>
     <row r="24" spans="2:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="47"/>
@@ -28492,7 +28498,7 @@
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
       <c r="H24" s="49"/>
-      <c r="K24" s="181">
+      <c r="K24" s="183">
         <v>5</v>
       </c>
       <c r="L24" s="56">
@@ -28713,7 +28719,7 @@
         <f t="shared" si="41"/>
         <v>2.1868553667268444</v>
       </c>
-      <c r="BP24" s="187">
+      <c r="BP24" s="189">
         <f t="shared" ref="BP24" si="122">SUM(BO24:BO26)/2</f>
         <v>1.3650575812963108</v>
       </c>
@@ -28726,7 +28732,7 @@
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
       <c r="H25" s="49"/>
-      <c r="K25" s="182"/>
+      <c r="K25" s="184"/>
       <c r="L25" s="57">
         <v>1</v>
       </c>
@@ -28945,7 +28951,7 @@
         <f t="shared" si="41"/>
         <v>0.27163096775177104</v>
       </c>
-      <c r="BP25" s="188"/>
+      <c r="BP25" s="190"/>
     </row>
     <row r="26" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="47"/>
@@ -28955,7 +28961,7 @@
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="49"/>
-      <c r="K26" s="183"/>
+      <c r="K26" s="185"/>
       <c r="L26" s="58">
         <v>1</v>
       </c>
@@ -29174,7 +29180,7 @@
         <f t="shared" si="41"/>
         <v>0.27162882811400585</v>
       </c>
-      <c r="BP26" s="189"/>
+      <c r="BP26" s="191"/>
     </row>
     <row r="27" spans="2:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="47"/>
@@ -29184,7 +29190,7 @@
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
       <c r="H27" s="49"/>
-      <c r="K27" s="184">
+      <c r="K27" s="192">
         <v>6</v>
       </c>
       <c r="L27" s="59">
@@ -29405,7 +29411,7 @@
         <f t="shared" si="41"/>
         <v>2.1753254824355914</v>
       </c>
-      <c r="BP27" s="178">
+      <c r="BP27" s="186">
         <f t="shared" ref="BP27" si="132">SUM(BO27:BO29)/2</f>
         <v>1.3633653939733332</v>
       </c>
@@ -29418,7 +29424,7 @@
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
       <c r="H28" s="52"/>
-      <c r="K28" s="185"/>
+      <c r="K28" s="193"/>
       <c r="L28" s="60">
         <v>1</v>
       </c>
@@ -29637,10 +29643,10 @@
         <f t="shared" si="41"/>
         <v>0.27570454972093472</v>
       </c>
-      <c r="BP28" s="179"/>
+      <c r="BP28" s="187"/>
     </row>
     <row r="29" spans="2:68" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="186"/>
+      <c r="K29" s="194"/>
       <c r="L29" s="61">
         <v>1</v>
       </c>
@@ -29859,10 +29865,10 @@
         <f t="shared" si="41"/>
         <v>0.27570075579014047</v>
       </c>
-      <c r="BP29" s="180"/>
+      <c r="BP29" s="188"/>
     </row>
     <row r="30" spans="2:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="181">
+      <c r="K30" s="183">
         <v>7</v>
       </c>
       <c r="L30" s="56">
@@ -30083,13 +30089,13 @@
         <f t="shared" si="41"/>
         <v>2.1641330656454163</v>
       </c>
-      <c r="BP30" s="187">
+      <c r="BP30" s="189">
         <f t="shared" ref="BP30" si="142">SUM(BO30:BO32)/2</f>
         <v>1.361758019343569</v>
       </c>
     </row>
     <row r="31" spans="2:68" x14ac:dyDescent="0.25">
-      <c r="K31" s="182"/>
+      <c r="K31" s="184"/>
       <c r="L31" s="57">
         <v>1</v>
       </c>
@@ -30308,10 +30314,10 @@
         <f t="shared" si="41"/>
         <v>0.27969453734357719</v>
       </c>
-      <c r="BP31" s="188"/>
+      <c r="BP31" s="190"/>
     </row>
     <row r="32" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K32" s="183"/>
+      <c r="K32" s="185"/>
       <c r="L32" s="58">
         <v>1</v>
       </c>
@@ -30530,10 +30536,10 @@
         <f t="shared" si="41"/>
         <v>0.27968843569814444</v>
       </c>
-      <c r="BP32" s="189"/>
+      <c r="BP32" s="191"/>
     </row>
     <row r="33" spans="11:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="184">
+      <c r="K33" s="192">
         <v>8</v>
       </c>
       <c r="L33" s="59">
@@ -30754,13 +30760,13 @@
         <f t="shared" si="41"/>
         <v>2.1532660932327254</v>
       </c>
-      <c r="BP33" s="178">
+      <c r="BP33" s="186">
         <f t="shared" ref="BP33" si="152">SUM(BO33:BO35)/2</f>
         <v>1.3602300693942551</v>
       </c>
     </row>
     <row r="34" spans="11:68" x14ac:dyDescent="0.25">
-      <c r="K34" s="185"/>
+      <c r="K34" s="193"/>
       <c r="L34" s="60">
         <v>1</v>
       </c>
@@ -30979,10 +30985,10 @@
         <f t="shared" si="41"/>
         <v>0.28360159912261301</v>
       </c>
-      <c r="BP34" s="179"/>
+      <c r="BP34" s="187"/>
     </row>
     <row r="35" spans="11:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K35" s="186"/>
+      <c r="K35" s="194"/>
       <c r="L35" s="61">
         <v>1</v>
       </c>
@@ -31201,10 +31207,10 @@
         <f t="shared" si="41"/>
         <v>0.28359244643317166</v>
       </c>
-      <c r="BP35" s="180"/>
+      <c r="BP35" s="188"/>
     </row>
     <row r="36" spans="11:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K36" s="181">
+      <c r="K36" s="183">
         <v>9</v>
       </c>
       <c r="L36" s="56">
@@ -31425,13 +31431,13 @@
         <f t="shared" si="41"/>
         <v>2.1427127806894131</v>
       </c>
-      <c r="BP36" s="187">
+      <c r="BP36" s="189">
         <f t="shared" ref="BP36" si="162">SUM(BO36:BO38)/2</f>
         <v>1.358776440034406</v>
       </c>
     </row>
     <row r="37" spans="11:68" x14ac:dyDescent="0.25">
-      <c r="K37" s="182"/>
+      <c r="K37" s="184"/>
       <c r="L37" s="57">
         <v>1</v>
       </c>
@@ -31650,10 +31656,10 @@
         <f t="shared" si="41"/>
         <v>0.28742656480033263</v>
       </c>
-      <c r="BP37" s="188"/>
+      <c r="BP37" s="190"/>
     </row>
     <row r="38" spans="11:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K38" s="183"/>
+      <c r="K38" s="185"/>
       <c r="L38" s="58">
         <v>1</v>
       </c>
@@ -31872,10 +31878,10 @@
         <f t="shared" si="41"/>
         <v>0.28741353457906604</v>
       </c>
-      <c r="BP38" s="189"/>
+      <c r="BP38" s="191"/>
     </row>
     <row r="39" spans="11:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K39" s="184">
+      <c r="K39" s="192">
         <v>10</v>
       </c>
       <c r="L39" s="59">
@@ -32096,13 +32102,13 @@
         <f t="shared" si="41"/>
         <v>2.1324616058461614</v>
       </c>
-      <c r="BP39" s="178">
+      <c r="BP39" s="186">
         <f>SUM(BO39:BO41)/2</f>
         <v>1.3573923018717975</v>
       </c>
     </row>
     <row r="40" spans="11:68" x14ac:dyDescent="0.25">
-      <c r="K40" s="185"/>
+      <c r="K40" s="193"/>
       <c r="L40" s="60">
         <v>1</v>
       </c>
@@ -32321,10 +32327,10 @@
         <f t="shared" si="41"/>
         <v>0.29117040449983378</v>
       </c>
-      <c r="BP40" s="179"/>
+      <c r="BP40" s="187"/>
     </row>
     <row r="41" spans="11:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K41" s="186"/>
+      <c r="K41" s="194"/>
       <c r="L41" s="61">
         <v>1</v>
       </c>
@@ -32543,40 +32549,11 @@
         <f t="shared" si="41"/>
         <v>0.29115259339759963</v>
       </c>
-      <c r="BP41" s="180"/>
+      <c r="BP41" s="188"/>
     </row>
     <row r="42" spans="11:68" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="Q10:X10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AV10"/>
-    <mergeCell ref="AW10:BG10"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="BP27:BP29"/>
-    <mergeCell ref="BP30:BP32"/>
-    <mergeCell ref="BP33:BP35"/>
-    <mergeCell ref="BP36:BP38"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K27:K29"/>
     <mergeCell ref="BP39:BP41"/>
     <mergeCell ref="BH10:BI10"/>
     <mergeCell ref="BJ10:BK10"/>
@@ -32593,6 +32570,35 @@
     <mergeCell ref="BP18:BP20"/>
     <mergeCell ref="BP21:BP23"/>
     <mergeCell ref="BP24:BP26"/>
+    <mergeCell ref="BP27:BP29"/>
+    <mergeCell ref="BP30:BP32"/>
+    <mergeCell ref="BP33:BP35"/>
+    <mergeCell ref="BP36:BP38"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AV10"/>
+    <mergeCell ref="AW10:BG10"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K12:K14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="'Daftar Isi'!A1" display="Daftar Isi"/>
@@ -32627,19 +32633,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:75" x14ac:dyDescent="0.25">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="190"/>
+      <c r="C2" s="178"/>
       <c r="D2" s="76">
         <v>13512032</v>
       </c>
     </row>
     <row r="3" spans="2:75" x14ac:dyDescent="0.25">
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="190"/>
+      <c r="C3" s="178"/>
       <c r="D3" s="76">
         <v>13512044</v>
       </c>
@@ -32682,144 +32688,144 @@
       <c r="C9" s="45"/>
     </row>
     <row r="10" spans="2:75" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="159" t="s">
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="197" t="s">
+      <c r="K10" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="197" t="s">
+      <c r="L10" s="195" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="197" t="s">
+      <c r="M10" s="195" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="197" t="s">
+      <c r="N10" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="197" t="s">
+      <c r="O10" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="197" t="s">
+      <c r="P10" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="197" t="s">
+      <c r="Q10" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="199" t="s">
+      <c r="R10" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="199"/>
-      <c r="T10" s="199"/>
-      <c r="U10" s="199"/>
-      <c r="V10" s="199"/>
-      <c r="W10" s="199"/>
-      <c r="X10" s="199"/>
-      <c r="Y10" s="199"/>
-      <c r="Z10" s="199"/>
-      <c r="AA10" s="199"/>
-      <c r="AB10" s="197" t="s">
+      <c r="S10" s="198"/>
+      <c r="T10" s="198"/>
+      <c r="U10" s="198"/>
+      <c r="V10" s="198"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="198"/>
+      <c r="Y10" s="198"/>
+      <c r="Z10" s="198"/>
+      <c r="AA10" s="198"/>
+      <c r="AB10" s="195" t="s">
         <v>71</v>
       </c>
-      <c r="AC10" s="197"/>
-      <c r="AD10" s="197" t="s">
+      <c r="AC10" s="195"/>
+      <c r="AD10" s="195" t="s">
         <v>72</v>
       </c>
-      <c r="AE10" s="197"/>
-      <c r="AF10" s="197" t="s">
+      <c r="AE10" s="195"/>
+      <c r="AF10" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="AG10" s="197" t="s">
+      <c r="AG10" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="AH10" s="197"/>
-      <c r="AI10" s="197"/>
-      <c r="AJ10" s="199" t="s">
+      <c r="AH10" s="195"/>
+      <c r="AI10" s="195"/>
+      <c r="AJ10" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="AK10" s="199"/>
-      <c r="AL10" s="199" t="s">
+      <c r="AK10" s="198"/>
+      <c r="AL10" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="199"/>
-      <c r="AN10" s="199"/>
-      <c r="AO10" s="199" t="s">
+      <c r="AM10" s="198"/>
+      <c r="AN10" s="198"/>
+      <c r="AO10" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="AP10" s="199"/>
-      <c r="AQ10" s="199"/>
-      <c r="AR10" s="199"/>
-      <c r="AS10" s="199"/>
-      <c r="AT10" s="199"/>
-      <c r="AU10" s="199"/>
-      <c r="AV10" s="199"/>
-      <c r="AW10" s="199"/>
-      <c r="AX10" s="199"/>
-      <c r="AY10" s="199"/>
-      <c r="AZ10" s="199"/>
-      <c r="BA10" s="199"/>
-      <c r="BB10" s="199" t="s">
+      <c r="AP10" s="198"/>
+      <c r="AQ10" s="198"/>
+      <c r="AR10" s="198"/>
+      <c r="AS10" s="198"/>
+      <c r="AT10" s="198"/>
+      <c r="AU10" s="198"/>
+      <c r="AV10" s="198"/>
+      <c r="AW10" s="198"/>
+      <c r="AX10" s="198"/>
+      <c r="AY10" s="198"/>
+      <c r="AZ10" s="198"/>
+      <c r="BA10" s="198"/>
+      <c r="BB10" s="198" t="s">
         <v>38</v>
       </c>
-      <c r="BC10" s="199"/>
-      <c r="BD10" s="199"/>
-      <c r="BE10" s="199"/>
-      <c r="BF10" s="199"/>
-      <c r="BG10" s="199"/>
-      <c r="BH10" s="199"/>
-      <c r="BI10" s="199"/>
-      <c r="BJ10" s="199"/>
-      <c r="BK10" s="199"/>
-      <c r="BL10" s="199"/>
-      <c r="BM10" s="199"/>
-      <c r="BN10" s="199"/>
-      <c r="BO10" s="199" t="s">
+      <c r="BC10" s="198"/>
+      <c r="BD10" s="198"/>
+      <c r="BE10" s="198"/>
+      <c r="BF10" s="198"/>
+      <c r="BG10" s="198"/>
+      <c r="BH10" s="198"/>
+      <c r="BI10" s="198"/>
+      <c r="BJ10" s="198"/>
+      <c r="BK10" s="198"/>
+      <c r="BL10" s="198"/>
+      <c r="BM10" s="198"/>
+      <c r="BN10" s="198"/>
+      <c r="BO10" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="BP10" s="199"/>
-      <c r="BQ10" s="199" t="s">
+      <c r="BP10" s="198"/>
+      <c r="BQ10" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="BR10" s="199"/>
-      <c r="BS10" s="199" t="s">
+      <c r="BR10" s="198"/>
+      <c r="BS10" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="BT10" s="199"/>
-      <c r="BU10" s="197" t="s">
+      <c r="BT10" s="198"/>
+      <c r="BU10" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="BV10" s="197" t="s">
+      <c r="BV10" s="195" t="s">
         <v>65</v>
       </c>
-      <c r="BW10" s="197" t="s">
+      <c r="BW10" s="195" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:75" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="192"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="159"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="171"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196"/>
+      <c r="N11" s="196"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="196"/>
       <c r="R11" s="66" t="s">
         <v>77</v>
       </c>
@@ -32862,7 +32868,7 @@
       <c r="AE11" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="AF11" s="198"/>
+      <c r="AF11" s="196"/>
       <c r="AG11" s="66" t="s">
         <v>86</v>
       </c>
@@ -32983,9 +32989,9 @@
       <c r="BT11" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="BU11" s="198"/>
-      <c r="BV11" s="198"/>
-      <c r="BW11" s="198"/>
+      <c r="BU11" s="196"/>
+      <c r="BV11" s="196"/>
+      <c r="BW11" s="196"/>
     </row>
     <row r="12" spans="2:75" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="63"/>
@@ -32998,7 +33004,7 @@
       <c r="I12" s="62">
         <v>0.1</v>
       </c>
-      <c r="K12" s="181">
+      <c r="K12" s="183">
         <v>1</v>
       </c>
       <c r="L12" s="56">
@@ -33233,7 +33239,7 @@
         <f>POWER(BU12,2)</f>
         <v>0.27895798642780129</v>
       </c>
-      <c r="BW12" s="187">
+      <c r="BW12" s="189">
         <f>SUM(BV12:BV17)/2</f>
         <v>3.6678664369564191</v>
       </c>
@@ -33246,7 +33252,7 @@
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="49"/>
-      <c r="K13" s="182"/>
+      <c r="K13" s="184"/>
       <c r="L13" s="57">
         <v>1</v>
       </c>
@@ -33492,7 +33498,7 @@
         <f t="shared" ref="BV13:BV71" si="22">POWER(BU13,2)</f>
         <v>0.27895727433249928</v>
       </c>
-      <c r="BW13" s="188"/>
+      <c r="BW13" s="190"/>
     </row>
     <row r="14" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B14" s="47"/>
@@ -33502,7 +33508,7 @@
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
-      <c r="K14" s="182"/>
+      <c r="K14" s="184"/>
       <c r="L14" s="57">
         <v>1</v>
       </c>
@@ -33748,7 +33754,7 @@
         <f t="shared" si="22"/>
         <v>0.27895710389667305</v>
       </c>
-      <c r="BW14" s="188"/>
+      <c r="BW14" s="190"/>
     </row>
     <row r="15" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B15" s="47"/>
@@ -33758,7 +33764,7 @@
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
       <c r="H15" s="49"/>
-      <c r="K15" s="182"/>
+      <c r="K15" s="184"/>
       <c r="L15" s="57">
         <v>1</v>
       </c>
@@ -34004,7 +34010,7 @@
         <f t="shared" si="22"/>
         <v>2.1662858805179788</v>
       </c>
-      <c r="BW15" s="188"/>
+      <c r="BW15" s="190"/>
     </row>
     <row r="16" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B16" s="47"/>
@@ -34014,7 +34020,7 @@
       <c r="F16" s="48"/>
       <c r="G16" s="48"/>
       <c r="H16" s="49"/>
-      <c r="K16" s="182"/>
+      <c r="K16" s="184"/>
       <c r="L16" s="57">
         <v>1</v>
       </c>
@@ -34260,7 +34266,7 @@
         <f t="shared" si="22"/>
         <v>2.1662885251413542</v>
       </c>
-      <c r="BW16" s="188"/>
+      <c r="BW16" s="190"/>
     </row>
     <row r="17" spans="2:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="47"/>
@@ -34270,7 +34276,7 @@
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
-      <c r="K17" s="183"/>
+      <c r="K17" s="185"/>
       <c r="L17" s="58">
         <v>1</v>
       </c>
@@ -34516,7 +34522,7 @@
         <f t="shared" si="22"/>
         <v>2.1662861035965317</v>
       </c>
-      <c r="BW17" s="189"/>
+      <c r="BW17" s="191"/>
     </row>
     <row r="18" spans="2:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="47"/>
@@ -34526,7 +34532,7 @@
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
       <c r="H18" s="49"/>
-      <c r="K18" s="184">
+      <c r="K18" s="192">
         <v>2</v>
       </c>
       <c r="L18" s="59">
@@ -34774,7 +34780,7 @@
         <f t="shared" si="22"/>
         <v>0.30801277756491613</v>
       </c>
-      <c r="BW18" s="178">
+      <c r="BW18" s="186">
         <f t="shared" ref="BW18" si="116">SUM(BV18:BV23)/2</f>
         <v>3.5931056495302944</v>
       </c>
@@ -34787,7 +34793,7 @@
       <c r="F19" s="48"/>
       <c r="G19" s="48"/>
       <c r="H19" s="49"/>
-      <c r="K19" s="185"/>
+      <c r="K19" s="193"/>
       <c r="L19" s="60">
         <v>1</v>
       </c>
@@ -35033,7 +35039,7 @@
         <f t="shared" si="22"/>
         <v>0.3079901162863638</v>
       </c>
-      <c r="BW19" s="179"/>
+      <c r="BW19" s="187"/>
     </row>
     <row r="20" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B20" s="47"/>
@@ -35043,7 +35049,7 @@
       <c r="F20" s="48"/>
       <c r="G20" s="48"/>
       <c r="H20" s="49"/>
-      <c r="K20" s="185"/>
+      <c r="K20" s="193"/>
       <c r="L20" s="60">
         <v>1</v>
       </c>
@@ -35289,7 +35295,7 @@
         <f t="shared" si="22"/>
         <v>0.30797931671785539</v>
       </c>
-      <c r="BW20" s="179"/>
+      <c r="BW20" s="187"/>
     </row>
     <row r="21" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B21" s="47"/>
@@ -35299,7 +35305,7 @@
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="49"/>
-      <c r="K21" s="185"/>
+      <c r="K21" s="193"/>
       <c r="L21" s="60">
         <v>1</v>
       </c>
@@ -35545,7 +35551,7 @@
         <f t="shared" si="22"/>
         <v>2.0873767370241496</v>
       </c>
-      <c r="BW21" s="179"/>
+      <c r="BW21" s="187"/>
     </row>
     <row r="22" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B22" s="47"/>
@@ -35555,7 +35561,7 @@
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
       <c r="H22" s="49"/>
-      <c r="K22" s="185"/>
+      <c r="K22" s="193"/>
       <c r="L22" s="60">
         <v>1</v>
       </c>
@@ -35801,7 +35807,7 @@
         <f t="shared" si="22"/>
         <v>2.0874820379682553</v>
       </c>
-      <c r="BW22" s="179"/>
+      <c r="BW22" s="187"/>
     </row>
     <row r="23" spans="2:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="47"/>
@@ -35811,7 +35817,7 @@
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
       <c r="H23" s="49"/>
-      <c r="K23" s="186"/>
+      <c r="K23" s="194"/>
       <c r="L23" s="61">
         <v>1</v>
       </c>
@@ -36057,7 +36063,7 @@
         <f t="shared" si="22"/>
         <v>2.087370313499048</v>
       </c>
-      <c r="BW23" s="180"/>
+      <c r="BW23" s="188"/>
     </row>
     <row r="24" spans="2:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="47"/>
@@ -36067,7 +36073,7 @@
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
       <c r="H24" s="49"/>
-      <c r="K24" s="196">
+      <c r="K24" s="197">
         <v>3</v>
       </c>
       <c r="L24" s="67">
@@ -36315,7 +36321,7 @@
         <f t="shared" si="22"/>
         <v>0.33755299417194429</v>
       </c>
-      <c r="BW24" s="195">
+      <c r="BW24" s="199">
         <f t="shared" ref="BW24" si="165">SUM(BV24:BV29)/2</f>
         <v>3.522750879857858</v>
       </c>
@@ -36328,7 +36334,7 @@
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
       <c r="H25" s="49"/>
-      <c r="K25" s="182"/>
+      <c r="K25" s="184"/>
       <c r="L25" s="57">
         <v>1</v>
       </c>
@@ -36574,7 +36580,7 @@
         <f t="shared" si="22"/>
         <v>0.33746109587051282</v>
       </c>
-      <c r="BW25" s="188"/>
+      <c r="BW25" s="190"/>
     </row>
     <row r="26" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B26" s="47"/>
@@ -36584,7 +36590,7 @@
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
       <c r="H26" s="49"/>
-      <c r="K26" s="182"/>
+      <c r="K26" s="184"/>
       <c r="L26" s="57">
         <v>1</v>
       </c>
@@ -36830,7 +36836,7 @@
         <f t="shared" si="22"/>
         <v>0.3374152791001776</v>
       </c>
-      <c r="BW26" s="188"/>
+      <c r="BW26" s="190"/>
     </row>
     <row r="27" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B27" s="47"/>
@@ -36840,7 +36846,7 @@
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
       <c r="H27" s="49"/>
-      <c r="K27" s="182"/>
+      <c r="K27" s="184"/>
       <c r="L27" s="57">
         <v>1</v>
       </c>
@@ -37086,7 +37092,7 @@
         <f t="shared" si="22"/>
         <v>2.0108978981165468</v>
       </c>
-      <c r="BW27" s="188"/>
+      <c r="BW27" s="190"/>
     </row>
     <row r="28" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B28" s="47"/>
@@ -37096,7 +37102,7 @@
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
       <c r="H28" s="49"/>
-      <c r="K28" s="182"/>
+      <c r="K28" s="184"/>
       <c r="L28" s="57">
         <v>1</v>
       </c>
@@ -37342,7 +37348,7 @@
         <f t="shared" si="22"/>
         <v>2.0113055939653539</v>
       </c>
-      <c r="BW28" s="188"/>
+      <c r="BW28" s="190"/>
     </row>
     <row r="29" spans="2:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="47"/>
@@ -37352,7 +37358,7 @@
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
       <c r="H29" s="49"/>
-      <c r="K29" s="183"/>
+      <c r="K29" s="185"/>
       <c r="L29" s="58">
         <v>1</v>
       </c>
@@ -37598,7 +37604,7 @@
         <f t="shared" si="22"/>
         <v>2.01086889849118</v>
       </c>
-      <c r="BW29" s="189"/>
+      <c r="BW29" s="191"/>
     </row>
     <row r="30" spans="2:75" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="50"/>
@@ -37608,7 +37614,7 @@
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
       <c r="H30" s="52"/>
-      <c r="K30" s="184">
+      <c r="K30" s="192">
         <v>4</v>
       </c>
       <c r="L30" s="59">
@@ -37856,13 +37862,13 @@
         <f t="shared" si="22"/>
         <v>0.36782860754640179</v>
       </c>
-      <c r="BW30" s="178">
+      <c r="BW30" s="186">
         <f t="shared" ref="BW30" si="169">SUM(BV30:BV35)/2</f>
         <v>3.4551787771821942</v>
       </c>
     </row>
     <row r="31" spans="2:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K31" s="185"/>
+      <c r="K31" s="193"/>
       <c r="L31" s="60">
         <v>1</v>
       </c>
@@ -38108,10 +38114,10 @@
         <f t="shared" si="22"/>
         <v>0.36760083847509673</v>
       </c>
-      <c r="BW31" s="179"/>
+      <c r="BW31" s="187"/>
     </row>
     <row r="32" spans="2:75" x14ac:dyDescent="0.25">
-      <c r="K32" s="185"/>
+      <c r="K32" s="193"/>
       <c r="L32" s="60">
         <v>1</v>
       </c>
@@ -38357,10 +38363,10 @@
         <f t="shared" si="22"/>
         <v>0.36748420611758686</v>
       </c>
-      <c r="BW32" s="179"/>
+      <c r="BW32" s="187"/>
     </row>
     <row r="33" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K33" s="185"/>
+      <c r="K33" s="193"/>
       <c r="L33" s="60">
         <v>1</v>
       </c>
@@ -38606,10 +38612,10 @@
         <f t="shared" si="22"/>
         <v>1.9355227060175004</v>
       </c>
-      <c r="BW33" s="179"/>
+      <c r="BW33" s="187"/>
     </row>
     <row r="34" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K34" s="185"/>
+      <c r="K34" s="193"/>
       <c r="L34" s="60">
         <v>1</v>
       </c>
@@ -38855,10 +38861,10 @@
         <f t="shared" si="22"/>
         <v>1.9364716802412922</v>
       </c>
-      <c r="BW34" s="179"/>
+      <c r="BW34" s="187"/>
     </row>
     <row r="35" spans="11:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K35" s="186"/>
+      <c r="K35" s="194"/>
       <c r="L35" s="61">
         <v>1</v>
       </c>
@@ -39104,10 +39110,10 @@
         <f t="shared" si="22"/>
         <v>1.935449515966511</v>
       </c>
-      <c r="BW35" s="180"/>
+      <c r="BW35" s="188"/>
     </row>
     <row r="36" spans="11:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K36" s="196">
+      <c r="K36" s="197">
         <v>5</v>
       </c>
       <c r="L36" s="67">
@@ -39355,13 +39361,13 @@
         <f t="shared" si="22"/>
         <v>0.39883434895731606</v>
       </c>
-      <c r="BW36" s="195">
+      <c r="BW36" s="199">
         <f t="shared" ref="BW36" si="173">SUM(BV36:BV41)/2</f>
         <v>3.3902042292265824</v>
       </c>
     </row>
     <row r="37" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K37" s="182"/>
+      <c r="K37" s="184"/>
       <c r="L37" s="57">
         <v>1</v>
       </c>
@@ -39607,10 +39613,10 @@
         <f t="shared" si="22"/>
         <v>0.39839739913500166</v>
       </c>
-      <c r="BW37" s="188"/>
+      <c r="BW37" s="190"/>
     </row>
     <row r="38" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K38" s="182"/>
+      <c r="K38" s="184"/>
       <c r="L38" s="57">
         <v>1</v>
       </c>
@@ -39856,10 +39862,10 @@
         <f t="shared" si="22"/>
         <v>0.39816816833460256</v>
       </c>
-      <c r="BW38" s="188"/>
+      <c r="BW38" s="190"/>
     </row>
     <row r="39" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K39" s="182"/>
+      <c r="K39" s="184"/>
       <c r="L39" s="57">
         <v>1</v>
       </c>
@@ -40105,10 +40111,10 @@
         <f t="shared" si="22"/>
         <v>1.8611537612068452</v>
       </c>
-      <c r="BW39" s="188"/>
+      <c r="BW39" s="190"/>
     </row>
     <row r="40" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K40" s="182"/>
+      <c r="K40" s="184"/>
       <c r="L40" s="57">
         <v>1</v>
       </c>
@@ -40354,10 +40360,10 @@
         <f t="shared" si="22"/>
         <v>1.8628398890700346</v>
       </c>
-      <c r="BW40" s="188"/>
+      <c r="BW40" s="190"/>
     </row>
     <row r="41" spans="11:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K41" s="183"/>
+      <c r="K41" s="185"/>
       <c r="L41" s="58">
         <v>1</v>
       </c>
@@ -40603,10 +40609,10 @@
         <f t="shared" si="22"/>
         <v>1.8610148917493645</v>
       </c>
-      <c r="BW41" s="189"/>
+      <c r="BW41" s="191"/>
     </row>
     <row r="42" spans="11:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K42" s="184">
+      <c r="K42" s="192">
         <v>6</v>
       </c>
       <c r="L42" s="59">
@@ -40854,13 +40860,13 @@
         <f t="shared" si="22"/>
         <v>0.43019010190748858</v>
       </c>
-      <c r="BW42" s="178">
+      <c r="BW42" s="186">
         <f t="shared" ref="BW42" si="177">SUM(BV42:BV47)/2</f>
         <v>3.3290436244889823</v>
       </c>
     </row>
     <row r="43" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K43" s="185"/>
+      <c r="K43" s="193"/>
       <c r="L43" s="60">
         <v>1</v>
       </c>
@@ -41106,10 +41112,10 @@
         <f t="shared" si="22"/>
         <v>0.42948312365565744</v>
       </c>
-      <c r="BW43" s="179"/>
+      <c r="BW43" s="187"/>
     </row>
     <row r="44" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K44" s="185"/>
+      <c r="K44" s="193"/>
       <c r="L44" s="60">
         <v>1</v>
       </c>
@@ -41355,10 +41361,10 @@
         <f t="shared" si="22"/>
         <v>0.42910247018823561</v>
       </c>
-      <c r="BW44" s="179"/>
+      <c r="BW44" s="187"/>
     </row>
     <row r="45" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K45" s="185"/>
+      <c r="K45" s="193"/>
       <c r="L45" s="60">
         <v>1</v>
       </c>
@@ -41604,10 +41610,10 @@
         <f t="shared" si="22"/>
         <v>1.7890124331503359</v>
       </c>
-      <c r="BW45" s="179"/>
+      <c r="BW45" s="187"/>
     </row>
     <row r="46" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K46" s="185"/>
+      <c r="K46" s="193"/>
       <c r="L46" s="60">
         <v>1</v>
       </c>
@@ -41853,10 +41859,10 @@
         <f t="shared" si="22"/>
         <v>1.7915053772868348</v>
       </c>
-      <c r="BW46" s="179"/>
+      <c r="BW46" s="187"/>
     </row>
     <row r="47" spans="11:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K47" s="186"/>
+      <c r="K47" s="194"/>
       <c r="L47" s="61">
         <v>1</v>
       </c>
@@ -42102,10 +42108,10 @@
         <f t="shared" si="22"/>
         <v>1.7887937427894123</v>
       </c>
-      <c r="BW47" s="180"/>
+      <c r="BW47" s="188"/>
     </row>
     <row r="48" spans="11:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K48" s="196">
+      <c r="K48" s="197">
         <v>7</v>
       </c>
       <c r="L48" s="67">
@@ -42353,13 +42359,13 @@
         <f t="shared" si="22"/>
         <v>0.46115663663075579</v>
       </c>
-      <c r="BW48" s="195">
+      <c r="BW48" s="199">
         <f t="shared" ref="BW48" si="181">SUM(BV48:BV53)/2</f>
         <v>3.2736329753112932</v>
       </c>
     </row>
     <row r="49" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K49" s="182"/>
+      <c r="K49" s="184"/>
       <c r="L49" s="57">
         <v>1</v>
       </c>
@@ -42605,10 +42611,10 @@
         <f t="shared" si="22"/>
         <v>0.46014907655417969</v>
       </c>
-      <c r="BW49" s="188"/>
+      <c r="BW49" s="190"/>
     </row>
     <row r="50" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K50" s="182"/>
+      <c r="K50" s="184"/>
       <c r="L50" s="57">
         <v>1</v>
       </c>
@@ -42854,10 +42860,10 @@
         <f t="shared" si="22"/>
         <v>0.4595903653606781</v>
       </c>
-      <c r="BW50" s="188"/>
+      <c r="BW50" s="190"/>
     </row>
     <row r="51" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K51" s="182"/>
+      <c r="K51" s="184"/>
       <c r="L51" s="57">
         <v>1</v>
       </c>
@@ -43103,10 +43109,10 @@
         <f t="shared" si="22"/>
         <v>1.7211515204471559</v>
       </c>
-      <c r="BW51" s="188"/>
+      <c r="BW51" s="190"/>
     </row>
     <row r="52" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K52" s="182"/>
+      <c r="K52" s="184"/>
       <c r="L52" s="57">
         <v>1</v>
       </c>
@@ -43352,10 +43358,10 @@
         <f t="shared" si="22"/>
         <v>1.7243679428088865</v>
       </c>
-      <c r="BW52" s="188"/>
+      <c r="BW52" s="190"/>
     </row>
     <row r="53" spans="11:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K53" s="183"/>
+      <c r="K53" s="185"/>
       <c r="L53" s="58">
         <v>1</v>
       </c>
@@ -43601,10 +43607,10 @@
         <f t="shared" si="22"/>
         <v>1.7208504088209302</v>
       </c>
-      <c r="BW53" s="189"/>
+      <c r="BW53" s="191"/>
     </row>
     <row r="54" spans="11:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K54" s="184">
+      <c r="K54" s="192">
         <v>8</v>
       </c>
       <c r="L54" s="59">
@@ -43852,13 +43858,13 @@
         <f t="shared" si="22"/>
         <v>0.49085406962487094</v>
       </c>
-      <c r="BW54" s="178">
+      <c r="BW54" s="186">
         <f t="shared" ref="BW54" si="185">SUM(BV54:BV59)/2</f>
         <v>3.2255175223984849</v>
       </c>
     </row>
     <row r="55" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K55" s="185"/>
+      <c r="K55" s="193"/>
       <c r="L55" s="60">
         <v>1</v>
       </c>
@@ -44104,10 +44110,10 @@
         <f t="shared" si="22"/>
         <v>0.48955140077915998</v>
       </c>
-      <c r="BW55" s="179"/>
+      <c r="BW55" s="187"/>
     </row>
     <row r="56" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K56" s="185"/>
+      <c r="K56" s="193"/>
       <c r="L56" s="60">
         <v>1</v>
       </c>
@@ -44353,10 +44359,10 @@
         <f t="shared" si="22"/>
         <v>0.4888045064561421</v>
       </c>
-      <c r="BW56" s="179"/>
+      <c r="BW56" s="187"/>
     </row>
     <row r="57" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K57" s="185"/>
+      <c r="K57" s="193"/>
       <c r="L57" s="60">
         <v>1</v>
       </c>
@@ -44602,10 +44608,10 @@
         <f t="shared" si="22"/>
         <v>1.659481806197344</v>
       </c>
-      <c r="BW57" s="179"/>
+      <c r="BW57" s="187"/>
     </row>
     <row r="58" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K58" s="185"/>
+      <c r="K58" s="193"/>
       <c r="L58" s="60">
         <v>1</v>
       </c>
@@ -44851,10 +44857,10 @@
         <f t="shared" si="22"/>
         <v>1.6632379035116291</v>
       </c>
-      <c r="BW58" s="179"/>
+      <c r="BW58" s="187"/>
     </row>
     <row r="59" spans="11:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K59" s="186"/>
+      <c r="K59" s="194"/>
       <c r="L59" s="61">
         <v>1</v>
       </c>
@@ -45100,10 +45106,10 @@
         <f t="shared" si="22"/>
         <v>1.6591053582278237</v>
       </c>
-      <c r="BW59" s="180"/>
+      <c r="BW59" s="188"/>
     </row>
     <row r="60" spans="11:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K60" s="196">
+      <c r="K60" s="197">
         <v>9</v>
       </c>
       <c r="L60" s="67">
@@ -45351,13 +45357,13 @@
         <f t="shared" si="22"/>
         <v>0.51854883135433139</v>
       </c>
-      <c r="BW60" s="195">
+      <c r="BW60" s="199">
         <f t="shared" ref="BW60" si="189">SUM(BV60:BV65)/2</f>
         <v>3.1851556640160426</v>
       </c>
     </row>
     <row r="61" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K61" s="182"/>
+      <c r="K61" s="184"/>
       <c r="L61" s="57">
         <v>1</v>
       </c>
@@ -45603,10 +45609,10 @@
         <f t="shared" si="22"/>
         <v>0.51698430286949737</v>
       </c>
-      <c r="BW61" s="188"/>
+      <c r="BW61" s="190"/>
     </row>
     <row r="62" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K62" s="182"/>
+      <c r="K62" s="184"/>
       <c r="L62" s="57">
         <v>1</v>
       </c>
@@ -45852,10 +45858,10 @@
         <f t="shared" si="22"/>
         <v>0.51605332273930793</v>
       </c>
-      <c r="BW62" s="188"/>
+      <c r="BW62" s="190"/>
     </row>
     <row r="63" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K63" s="182"/>
+      <c r="K63" s="184"/>
       <c r="L63" s="57">
         <v>1</v>
       </c>
@@ -46101,10 +46107,10 @@
         <f t="shared" si="22"/>
         <v>1.6050238259535814</v>
       </c>
-      <c r="BW63" s="188"/>
+      <c r="BW63" s="190"/>
     </row>
     <row r="64" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K64" s="182"/>
+      <c r="K64" s="184"/>
       <c r="L64" s="57">
         <v>1</v>
       </c>
@@ -46350,10 +46356,10 @@
         <f t="shared" si="22"/>
         <v>1.6091176662784135</v>
       </c>
-      <c r="BW64" s="188"/>
+      <c r="BW64" s="190"/>
     </row>
     <row r="65" spans="11:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K65" s="183"/>
+      <c r="K65" s="185"/>
       <c r="L65" s="58">
         <v>1</v>
       </c>
@@ -46599,10 +46605,10 @@
         <f t="shared" si="22"/>
         <v>1.6045833788369537</v>
       </c>
-      <c r="BW65" s="189"/>
+      <c r="BW65" s="191"/>
     </row>
     <row r="66" spans="11:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K66" s="184">
+      <c r="K66" s="192">
         <v>10</v>
       </c>
       <c r="L66" s="59">
@@ -46850,13 +46856,13 @@
         <f t="shared" si="22"/>
         <v>0.54381538350641456</v>
       </c>
-      <c r="BW66" s="178">
+      <c r="BW66" s="186">
         <f t="shared" ref="BW66" si="193">SUM(BV66:BV71)/2</f>
         <v>3.1520052730839709</v>
       </c>
     </row>
     <row r="67" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K67" s="185"/>
+      <c r="K67" s="193"/>
       <c r="L67" s="60">
         <v>1</v>
       </c>
@@ -47102,10 +47108,10 @@
         <f t="shared" si="22"/>
         <v>0.54203598047907209</v>
       </c>
-      <c r="BW67" s="179"/>
+      <c r="BW67" s="187"/>
     </row>
     <row r="68" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K68" s="185"/>
+      <c r="K68" s="193"/>
       <c r="L68" s="60">
         <v>1</v>
       </c>
@@ -47351,10 +47357,10 @@
         <f t="shared" si="22"/>
         <v>0.5409334590044681</v>
       </c>
-      <c r="BW68" s="179"/>
+      <c r="BW68" s="187"/>
     </row>
     <row r="69" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K69" s="185"/>
+      <c r="K69" s="193"/>
       <c r="L69" s="60">
         <v>1</v>
       </c>
@@ -47600,10 +47606,10 @@
         <f t="shared" si="22"/>
         <v>1.5578177484222739</v>
       </c>
-      <c r="BW69" s="179"/>
+      <c r="BW69" s="187"/>
     </row>
     <row r="70" spans="11:75" x14ac:dyDescent="0.25">
-      <c r="K70" s="185"/>
+      <c r="K70" s="193"/>
       <c r="L70" s="60">
         <v>1</v>
       </c>
@@ -47849,10 +47855,10 @@
         <f t="shared" si="22"/>
         <v>1.5620837092248017</v>
       </c>
-      <c r="BW70" s="179"/>
+      <c r="BW70" s="187"/>
     </row>
     <row r="71" spans="11:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K71" s="186"/>
+      <c r="K71" s="194"/>
       <c r="L71" s="61">
         <v>1</v>
       </c>
@@ -48098,16 +48104,36 @@
         <f t="shared" si="22"/>
         <v>1.5573242655309112</v>
       </c>
-      <c r="BW71" s="180"/>
+      <c r="BW71" s="188"/>
     </row>
     <row r="72" spans="11:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="BW48:BW53"/>
+    <mergeCell ref="BW54:BW59"/>
+    <mergeCell ref="BW60:BW65"/>
+    <mergeCell ref="BW66:BW71"/>
+    <mergeCell ref="K42:K47"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="K54:K59"/>
+    <mergeCell ref="K60:K65"/>
+    <mergeCell ref="K66:K71"/>
+    <mergeCell ref="BW18:BW23"/>
+    <mergeCell ref="BW24:BW29"/>
+    <mergeCell ref="BW30:BW35"/>
+    <mergeCell ref="BW36:BW41"/>
+    <mergeCell ref="BW42:BW47"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="R10:AA10"/>
+    <mergeCell ref="AO10:BA10"/>
+    <mergeCell ref="K12:K17"/>
+    <mergeCell ref="K18:K23"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="L10:L11"/>
     <mergeCell ref="K24:K29"/>
     <mergeCell ref="K30:K35"/>
     <mergeCell ref="K36:K41"/>
@@ -48124,31 +48150,11 @@
     <mergeCell ref="AG10:AI10"/>
     <mergeCell ref="AJ10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="R10:AA10"/>
-    <mergeCell ref="AO10:BA10"/>
-    <mergeCell ref="K12:K17"/>
-    <mergeCell ref="K18:K23"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="BW18:BW23"/>
-    <mergeCell ref="BW24:BW29"/>
-    <mergeCell ref="BW30:BW35"/>
-    <mergeCell ref="BW36:BW41"/>
-    <mergeCell ref="BW42:BW47"/>
-    <mergeCell ref="BW48:BW53"/>
-    <mergeCell ref="BW54:BW59"/>
-    <mergeCell ref="BW60:BW65"/>
-    <mergeCell ref="BW66:BW71"/>
-    <mergeCell ref="K42:K47"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="K54:K59"/>
-    <mergeCell ref="K60:K65"/>
-    <mergeCell ref="K66:K71"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" location="'Daftar Isi'!A1" display="Daftar Isi"/>
